--- a/Code/Results/Cases/Case_4_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_15/res_bus/vm_pu.xlsx
@@ -417,192 +417,984 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
+      <c r="C2">
+        <v>0.9709562408559909</v>
+      </c>
+      <c r="D2">
+        <v>0.9925492263569984</v>
+      </c>
+      <c r="E2">
+        <v>0.9793422051623428</v>
+      </c>
+      <c r="F2">
+        <v>0.9800142939058979</v>
+      </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1.028933562812533</v>
+      </c>
+      <c r="J2">
+        <v>0.9940417602722628</v>
+      </c>
+      <c r="K2">
+        <v>1.004113347606089</v>
+      </c>
+      <c r="L2">
+        <v>0.9910970406684966</v>
+      </c>
+      <c r="M2">
+        <v>0.9917592666451314</v>
+      </c>
+      <c r="N2">
+        <v>0.995453413590033</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.9842073965898553</v>
+      </c>
+      <c r="D3">
+        <v>1.002896126919879</v>
+      </c>
+      <c r="E3">
+        <v>0.9919972313285487</v>
+      </c>
+      <c r="F3">
+        <v>0.9927188128832027</v>
+      </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.03338527804733</v>
+      </c>
+      <c r="J3">
+        <v>1.005138042461462</v>
+      </c>
+      <c r="K3">
+        <v>1.013492084897365</v>
+      </c>
+      <c r="L3">
+        <v>1.002733543636533</v>
+      </c>
+      <c r="M3">
+        <v>1.003445713479108</v>
+      </c>
+      <c r="N3">
+        <v>1.006565453772702</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>0.9923370082787997</v>
+      </c>
+      <c r="D4">
+        <v>1.009246102765815</v>
+      </c>
+      <c r="E4">
+        <v>0.9997689443467527</v>
+      </c>
+      <c r="F4">
+        <v>1.000522676807231</v>
+      </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.036097888598685</v>
+      </c>
+      <c r="J4">
+        <v>1.011938786369136</v>
+      </c>
+      <c r="K4">
+        <v>1.019234201759623</v>
+      </c>
+      <c r="L4">
+        <v>1.00987015880677</v>
+      </c>
+      <c r="M4">
+        <v>1.010614797671266</v>
+      </c>
+      <c r="N4">
+        <v>1.013375855516781</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>0.9956587096694256</v>
+      </c>
+      <c r="D5">
+        <v>1.011840838363231</v>
+      </c>
+      <c r="E5">
+        <v>1.002946104929026</v>
+      </c>
+      <c r="F5">
+        <v>1.003713372333892</v>
+      </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.037201611327759</v>
+      </c>
+      <c r="J5">
+        <v>1.014715727340502</v>
+      </c>
+      <c r="K5">
+        <v>1.021577354785863</v>
+      </c>
+      <c r="L5">
+        <v>1.01278539147337</v>
+      </c>
+      <c r="M5">
+        <v>1.013543705075231</v>
+      </c>
+      <c r="N5">
+        <v>1.016156740062847</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>0.9962110828161346</v>
+      </c>
+      <c r="D6">
+        <v>1.012272324644146</v>
+      </c>
+      <c r="E6">
+        <v>1.003474536942</v>
+      </c>
+      <c r="F6">
+        <v>1.004244077770725</v>
+      </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.037384874264948</v>
+      </c>
+      <c r="J6">
+        <v>1.015177401422175</v>
+      </c>
+      <c r="K6">
+        <v>1.021966818601743</v>
+      </c>
+      <c r="L6">
+        <v>1.013270124380117</v>
+      </c>
+      <c r="M6">
+        <v>1.014030735224604</v>
+      </c>
+      <c r="N6">
+        <v>1.01661906977467</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>0.9923817575788415</v>
+      </c>
+      <c r="D7">
+        <v>1.009281058212829</v>
+      </c>
+      <c r="E7">
+        <v>0.9998117399114941</v>
+      </c>
+      <c r="F7">
+        <v>1.000565653164848</v>
+      </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.036112776369839</v>
+      </c>
+      <c r="J7">
+        <v>1.011976204083864</v>
+      </c>
+      <c r="K7">
+        <v>1.019265780578065</v>
+      </c>
+      <c r="L7">
+        <v>1.009909435368486</v>
+      </c>
+      <c r="M7">
+        <v>1.010654256870345</v>
+      </c>
+      <c r="N7">
+        <v>1.013413326368956</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9755335232231026</v>
+      </c>
+      <c r="D8">
+        <v>0.9961226251520335</v>
+      </c>
+      <c r="E8">
+        <v>0.9837117658736693</v>
+      </c>
+      <c r="F8">
+        <v>0.9844005464646005</v>
+      </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.030475144593401</v>
+      </c>
+      <c r="J8">
+        <v>0.9978760606058839</v>
+      </c>
+      <c r="K8">
+        <v>1.007355375373137</v>
+      </c>
+      <c r="L8">
+        <v>0.9951169875033501</v>
+      </c>
+      <c r="M8">
+        <v>0.9957960522252207</v>
+      </c>
+      <c r="N8">
+        <v>0.9992931590699281</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9418472625652354</v>
+      </c>
+      <c r="D9">
+        <v>0.9698522324860807</v>
+      </c>
+      <c r="E9">
+        <v>0.9516000038454761</v>
+      </c>
+      <c r="F9">
+        <v>0.9521758448302701</v>
+      </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.019055675031653</v>
+      </c>
+      <c r="J9">
+        <v>0.9696349855277386</v>
+      </c>
+      <c r="K9">
+        <v>0.9834541377169954</v>
+      </c>
+      <c r="L9">
+        <v>0.965530386738797</v>
+      </c>
+      <c r="M9">
+        <v>0.966095613868325</v>
+      </c>
+      <c r="N9">
+        <v>0.9710119784258753</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9155966764612586</v>
+      </c>
+      <c r="D10">
+        <v>0.9494462516480973</v>
+      </c>
+      <c r="E10">
+        <v>0.9266531596643377</v>
+      </c>
+      <c r="F10">
+        <v>0.9271571351256126</v>
+      </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.010074267337938</v>
+      </c>
+      <c r="J10">
+        <v>0.9476112179813511</v>
+      </c>
+      <c r="K10">
+        <v>0.9647924723975834</v>
+      </c>
+      <c r="L10">
+        <v>0.9424862718869075</v>
+      </c>
+      <c r="M10">
+        <v>0.9429791374933795</v>
+      </c>
+      <c r="N10">
+        <v>0.9489569346034107</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9029556754029789</v>
+      </c>
+      <c r="D11">
+        <v>0.9396482623356899</v>
+      </c>
+      <c r="E11">
+        <v>0.914665616761179</v>
+      </c>
+      <c r="F11">
+        <v>0.915140294571502</v>
+      </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.005736322284267</v>
+      </c>
+      <c r="J11">
+        <v>0.9370078731218191</v>
+      </c>
+      <c r="K11">
+        <v>0.9558057250783998</v>
+      </c>
+      <c r="L11">
+        <v>0.9313986514687796</v>
+      </c>
+      <c r="M11">
+        <v>0.9318620001317452</v>
+      </c>
+      <c r="N11">
+        <v>0.9383385317779572</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.8980214651646177</v>
+      </c>
+      <c r="D12">
+        <v>0.9358296158537533</v>
+      </c>
+      <c r="E12">
+        <v>0.9099912055028614</v>
+      </c>
+      <c r="F12">
+        <v>0.9104554313225759</v>
+      </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.004041961886424</v>
+      </c>
+      <c r="J12">
+        <v>0.9328701290808925</v>
+      </c>
+      <c r="K12">
+        <v>0.9522989084581968</v>
+      </c>
+      <c r="L12">
+        <v>0.9270729762039503</v>
+      </c>
+      <c r="M12">
+        <v>0.9275257848937635</v>
+      </c>
+      <c r="N12">
+        <v>0.934194911665887</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.8990916396720813</v>
+      </c>
+      <c r="D13">
+        <v>0.9366575444711868</v>
+      </c>
+      <c r="E13">
+        <v>0.9110048027864128</v>
+      </c>
+      <c r="F13">
+        <v>0.9114712475656842</v>
+      </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.004409483213418</v>
+      </c>
+      <c r="J13">
+        <v>0.9337674944325182</v>
+      </c>
+      <c r="K13">
+        <v>0.953059431126245</v>
+      </c>
+      <c r="L13">
+        <v>0.9280110517826075</v>
+      </c>
+      <c r="M13">
+        <v>0.9284660987471718</v>
+      </c>
+      <c r="N13">
+        <v>0.9350935513792407</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9025530230625813</v>
+      </c>
+      <c r="D14">
+        <v>0.9393365168534319</v>
+      </c>
+      <c r="E14">
+        <v>0.914284064122019</v>
+      </c>
+      <c r="F14">
+        <v>0.9147578679461928</v>
+      </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.005598071959177</v>
+      </c>
+      <c r="J14">
+        <v>0.9366701883755405</v>
+      </c>
+      <c r="K14">
+        <v>0.955519526458136</v>
+      </c>
+      <c r="L14">
+        <v>0.9310456084927531</v>
+      </c>
+      <c r="M14">
+        <v>0.9315080760810664</v>
+      </c>
+      <c r="N14">
+        <v>0.938000367480606</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9046523290160537</v>
+      </c>
+      <c r="D15">
+        <v>0.9409621069466312</v>
+      </c>
+      <c r="E15">
+        <v>0.9162735583926069</v>
+      </c>
+      <c r="F15">
+        <v>0.9167519596494866</v>
+      </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.006318827720845</v>
+      </c>
+      <c r="J15">
+        <v>0.9384308225029245</v>
+      </c>
+      <c r="K15">
+        <v>0.9570117261525679</v>
+      </c>
+      <c r="L15">
+        <v>0.9328863599806271</v>
+      </c>
+      <c r="M15">
+        <v>0.9333534618229472</v>
+      </c>
+      <c r="N15">
+        <v>0.9397635019103985</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9164051180987183</v>
+      </c>
+      <c r="D16">
+        <v>0.9500735618744611</v>
+      </c>
+      <c r="E16">
+        <v>0.927420391800955</v>
+      </c>
+      <c r="F16">
+        <v>0.9279263614977661</v>
+      </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="I16">
+        <v>1.010351497718001</v>
+      </c>
+      <c r="J16">
+        <v>0.9482894452363863</v>
+      </c>
+      <c r="K16">
+        <v>0.9653672839847737</v>
+      </c>
+      <c r="L16">
+        <v>0.9431956155081165</v>
+      </c>
+      <c r="M16">
+        <v>0.943690489406087</v>
+      </c>
+      <c r="N16">
+        <v>0.9496361250189416</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9234078328771891</v>
+      </c>
+      <c r="D17">
+        <v>0.9555105537760143</v>
+      </c>
+      <c r="E17">
+        <v>0.9340690149977097</v>
+      </c>
+      <c r="F17">
+        <v>0.9345928511982483</v>
+      </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="I17">
+        <v>1.012751524781774</v>
+      </c>
+      <c r="J17">
+        <v>0.9541645481823794</v>
+      </c>
+      <c r="K17">
+        <v>0.9703463602311702</v>
+      </c>
+      <c r="L17">
+        <v>0.9493410218033047</v>
+      </c>
+      <c r="M17">
+        <v>0.9498538858256937</v>
+      </c>
+      <c r="N17">
+        <v>0.9555195712850019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9273733557741942</v>
+      </c>
+      <c r="D18">
+        <v>0.9585918965311933</v>
+      </c>
+      <c r="E18">
+        <v>0.9378362728060943</v>
+      </c>
+      <c r="F18">
+        <v>0.9383706920479948</v>
+      </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="I18">
+        <v>1.01410939094019</v>
+      </c>
+      <c r="J18">
+        <v>0.9574916670447048</v>
+      </c>
+      <c r="K18">
+        <v>0.973165834024232</v>
+      </c>
+      <c r="L18">
+        <v>0.9528218455919485</v>
+      </c>
+      <c r="M18">
+        <v>0.9533453648728336</v>
+      </c>
+      <c r="N18">
+        <v>0.9588514150377375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9287064759034911</v>
+      </c>
+      <c r="D19">
+        <v>0.9596281562846788</v>
+      </c>
+      <c r="E19">
+        <v>0.9391031018369703</v>
+      </c>
+      <c r="F19">
+        <v>0.9396411535948866</v>
+      </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="I19">
+        <v>1.014565646856433</v>
+      </c>
+      <c r="J19">
+        <v>0.9586101765845058</v>
+      </c>
+      <c r="K19">
+        <v>0.9741136373311765</v>
+      </c>
+      <c r="L19">
+        <v>0.953992134421372</v>
+      </c>
+      <c r="M19">
+        <v>0.9545193109741268</v>
+      </c>
+      <c r="N19">
+        <v>0.9599715129893799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9226691085671244</v>
+      </c>
+      <c r="D20">
+        <v>0.9549367326034272</v>
+      </c>
+      <c r="E20">
+        <v>0.9333674035884476</v>
+      </c>
+      <c r="F20">
+        <v>0.9338893052773651</v>
+      </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="I20">
+        <v>1.012498466985427</v>
+      </c>
+      <c r="J20">
+        <v>0.9535447574038208</v>
+      </c>
+      <c r="K20">
+        <v>0.9698211157630793</v>
+      </c>
+      <c r="L20">
+        <v>0.9486926496208475</v>
+      </c>
+      <c r="M20">
+        <v>0.9492035658855816</v>
+      </c>
+      <c r="N20">
+        <v>0.9548989003324466</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9015407961892435</v>
+      </c>
+      <c r="D21">
+        <v>0.9385529198388067</v>
+      </c>
+      <c r="E21">
+        <v>0.9133249587014768</v>
+      </c>
+      <c r="F21">
+        <v>0.9137965818629166</v>
+      </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="I21">
+        <v>1.005250510302011</v>
+      </c>
+      <c r="J21">
+        <v>0.9358213040184487</v>
+      </c>
+      <c r="K21">
+        <v>0.9548000727146664</v>
+      </c>
+      <c r="L21">
+        <v>0.9301581327526423</v>
+      </c>
+      <c r="M21">
+        <v>0.9306184017959135</v>
+      </c>
+      <c r="N21">
+        <v>0.9371502776103585</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.8868358797378824</v>
+      </c>
+      <c r="D22">
+        <v>0.9271861725433125</v>
+      </c>
+      <c r="E22">
+        <v>0.899404729137198</v>
+      </c>
+      <c r="F22">
+        <v>0.8998473902294752</v>
+      </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="I22">
+        <v>1.000200071138996</v>
+      </c>
+      <c r="J22">
+        <v>0.9234932923999637</v>
+      </c>
+      <c r="K22">
+        <v>0.9443525984777776</v>
+      </c>
+      <c r="L22">
+        <v>0.917272213843338</v>
+      </c>
+      <c r="M22">
+        <v>0.9177032439848481</v>
+      </c>
+      <c r="N22">
+        <v>0.9248047588013332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.8947871282287454</v>
+      </c>
+      <c r="D23">
+        <v>0.9333284160379751</v>
+      </c>
+      <c r="E23">
+        <v>0.9069286398587552</v>
+      </c>
+      <c r="F23">
+        <v>0.9073863227922664</v>
+      </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="I23">
+        <v>1.002931137744105</v>
+      </c>
+      <c r="J23">
+        <v>0.9301583024713946</v>
+      </c>
+      <c r="K23">
+        <v>0.9500006696646219</v>
+      </c>
+      <c r="L23">
+        <v>0.9242382773157483</v>
+      </c>
+      <c r="M23">
+        <v>0.9246844837486539</v>
+      </c>
+      <c r="N23">
+        <v>0.9314792339515525</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9230032708116939</v>
+      </c>
+      <c r="D24">
+        <v>0.9551962932449778</v>
+      </c>
+      <c r="E24">
+        <v>0.9336847708136701</v>
+      </c>
+      <c r="F24">
+        <v>0.9342075461356723</v>
+      </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="I24">
+        <v>1.012612941686976</v>
+      </c>
+      <c r="J24">
+        <v>0.9538251196170469</v>
+      </c>
+      <c r="K24">
+        <v>0.9700587106830092</v>
+      </c>
+      <c r="L24">
+        <v>0.9489859386548506</v>
+      </c>
+      <c r="M24">
+        <v>0.9494977345372687</v>
+      </c>
+      <c r="N24">
+        <v>0.9551796606921736</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9511257497517347</v>
+      </c>
+      <c r="D25">
+        <v>0.9770805448399709</v>
+      </c>
+      <c r="E25">
+        <v>0.9604340875127308</v>
+      </c>
+      <c r="F25">
+        <v>0.9610387469416842</v>
+      </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.022216140667523</v>
+      </c>
+      <c r="J25">
+        <v>0.9774178112692214</v>
+      </c>
+      <c r="K25">
+        <v>0.9900453906181922</v>
+      </c>
+      <c r="L25">
+        <v>0.9736793232644466</v>
+      </c>
+      <c r="M25">
+        <v>0.9742735781408529</v>
+      </c>
+      <c r="N25">
+        <v>0.9788058566726138</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_15/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9709562408559909</v>
+        <v>1.010499140425914</v>
       </c>
       <c r="D2">
-        <v>0.9925492263569984</v>
+        <v>1.031432651995837</v>
       </c>
       <c r="E2">
-        <v>0.9793422051623428</v>
+        <v>1.029416099337616</v>
       </c>
       <c r="F2">
-        <v>0.9800142939058979</v>
+        <v>1.038633781685864</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.028933562812533</v>
+        <v>1.053957052877462</v>
       </c>
       <c r="J2">
-        <v>0.9940417602722628</v>
+        <v>1.032370295502782</v>
       </c>
       <c r="K2">
-        <v>1.004113347606089</v>
+        <v>1.042470782750934</v>
       </c>
       <c r="L2">
-        <v>0.9910970406684966</v>
+        <v>1.040480285668403</v>
       </c>
       <c r="M2">
-        <v>0.9917592666451314</v>
+        <v>1.049579898719037</v>
       </c>
       <c r="N2">
-        <v>0.995453413590033</v>
+        <v>1.014602978045269</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9842073965898553</v>
+        <v>1.014755743824333</v>
       </c>
       <c r="D3">
-        <v>1.002896126919879</v>
+        <v>1.034618781149371</v>
       </c>
       <c r="E3">
-        <v>0.9919972313285487</v>
+        <v>1.033177397610415</v>
       </c>
       <c r="F3">
-        <v>0.9927188128832027</v>
+        <v>1.042385521964152</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.03338527804733</v>
+        <v>1.055170901710652</v>
       </c>
       <c r="J3">
-        <v>1.005138042461462</v>
+        <v>1.0348520782466</v>
       </c>
       <c r="K3">
-        <v>1.013492084897365</v>
+        <v>1.044827070602477</v>
       </c>
       <c r="L3">
-        <v>1.002733543636533</v>
+        <v>1.043402662041784</v>
       </c>
       <c r="M3">
-        <v>1.003445713479108</v>
+        <v>1.05250334187911</v>
       </c>
       <c r="N3">
-        <v>1.006565453772702</v>
+        <v>1.015434791580258</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9923370082787997</v>
+        <v>1.017456857430186</v>
       </c>
       <c r="D4">
-        <v>1.009246102765815</v>
+        <v>1.036641298814619</v>
       </c>
       <c r="E4">
-        <v>0.9997689443467527</v>
+        <v>1.035568952955356</v>
       </c>
       <c r="F4">
-        <v>1.000522676807231</v>
+        <v>1.04476955707974</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036097888598685</v>
+        <v>1.055927617220945</v>
       </c>
       <c r="J4">
-        <v>1.011938786369136</v>
+        <v>1.036424316197904</v>
       </c>
       <c r="K4">
-        <v>1.019234201759623</v>
+        <v>1.046316728401079</v>
       </c>
       <c r="L4">
-        <v>1.00987015880677</v>
+        <v>1.045256238901433</v>
       </c>
       <c r="M4">
-        <v>1.010614797671266</v>
+        <v>1.05435608777596</v>
       </c>
       <c r="N4">
-        <v>1.013375855516781</v>
+        <v>1.015961644573191</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9956587096694256</v>
+        <v>1.018580092409317</v>
       </c>
       <c r="D5">
-        <v>1.011840838363231</v>
+        <v>1.037482460928293</v>
       </c>
       <c r="E5">
-        <v>1.002946104929026</v>
+        <v>1.036564563409953</v>
       </c>
       <c r="F5">
-        <v>1.003713372333892</v>
+        <v>1.045761684354892</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.037201611327759</v>
+        <v>1.05623899015943</v>
       </c>
       <c r="J5">
-        <v>1.014715727340502</v>
+        <v>1.037077456286299</v>
       </c>
       <c r="K5">
-        <v>1.021577354785863</v>
+        <v>1.046934809226393</v>
       </c>
       <c r="L5">
-        <v>1.01278539147337</v>
+        <v>1.046026786618635</v>
       </c>
       <c r="M5">
-        <v>1.013543705075231</v>
+        <v>1.055125921352392</v>
       </c>
       <c r="N5">
-        <v>1.016156740062847</v>
+        <v>1.016180481193431</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9962110828161346</v>
+        <v>1.018767978343269</v>
       </c>
       <c r="D6">
-        <v>1.012272324644146</v>
+        <v>1.037623169246917</v>
       </c>
       <c r="E6">
-        <v>1.003474536942</v>
+        <v>1.036731165092491</v>
       </c>
       <c r="F6">
-        <v>1.004244077770725</v>
+        <v>1.045927682277982</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.037384874264948</v>
+        <v>1.05629087877665</v>
       </c>
       <c r="J6">
-        <v>1.015177401422175</v>
+        <v>1.037186668651032</v>
       </c>
       <c r="K6">
-        <v>1.021966818601743</v>
+        <v>1.047038114529734</v>
       </c>
       <c r="L6">
-        <v>1.013270124380117</v>
+        <v>1.046155662280021</v>
       </c>
       <c r="M6">
-        <v>1.014030735224604</v>
+        <v>1.055254655696281</v>
       </c>
       <c r="N6">
-        <v>1.01661906977467</v>
+        <v>1.016217071360374</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9923817575788415</v>
+        <v>1.01747191398895</v>
       </c>
       <c r="D7">
-        <v>1.009281058212829</v>
+        <v>1.036652573899313</v>
       </c>
       <c r="E7">
-        <v>0.9998117399114941</v>
+        <v>1.035582294445981</v>
       </c>
       <c r="F7">
-        <v>1.000565653164848</v>
+        <v>1.044782853294354</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036112776369839</v>
+        <v>1.055931804161238</v>
       </c>
       <c r="J7">
-        <v>1.011976204083864</v>
+        <v>1.036433073958213</v>
       </c>
       <c r="K7">
-        <v>1.019265780578065</v>
+        <v>1.04632501906057</v>
       </c>
       <c r="L7">
-        <v>1.009909435368486</v>
+        <v>1.045266568834921</v>
       </c>
       <c r="M7">
-        <v>1.010654256870345</v>
+        <v>1.054366409601228</v>
       </c>
       <c r="N7">
-        <v>1.013413326368956</v>
+        <v>1.015964579005834</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9755335232231026</v>
+        <v>1.011948953610896</v>
       </c>
       <c r="D8">
-        <v>0.9961226251520335</v>
+        <v>1.032517680656402</v>
       </c>
       <c r="E8">
-        <v>0.9837117658736693</v>
+        <v>1.030696192430294</v>
       </c>
       <c r="F8">
-        <v>0.9844005464646005</v>
+        <v>1.039910919958945</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.030475144593401</v>
+        <v>1.054373304999354</v>
       </c>
       <c r="J8">
-        <v>0.9978760606058839</v>
+        <v>1.033216130164716</v>
       </c>
       <c r="K8">
-        <v>1.007355375373137</v>
+        <v>1.043274482844852</v>
       </c>
       <c r="L8">
-        <v>0.9951169875033501</v>
+        <v>1.041475817893073</v>
       </c>
       <c r="M8">
-        <v>0.9957960522252207</v>
+        <v>1.050576106081394</v>
       </c>
       <c r="N8">
-        <v>0.9992931590699281</v>
+        <v>1.014886496196066</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9418472625652354</v>
+        <v>1.00178942573782</v>
       </c>
       <c r="D9">
-        <v>0.9698522324860807</v>
+        <v>1.024919495127216</v>
       </c>
       <c r="E9">
-        <v>0.9516000038454761</v>
+        <v>1.021747652097486</v>
       </c>
       <c r="F9">
-        <v>0.9521758448302701</v>
+        <v>1.030977208716043</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.019055675031653</v>
+        <v>1.051400999134672</v>
       </c>
       <c r="J9">
-        <v>0.9696349855277386</v>
+        <v>1.02727915262867</v>
       </c>
       <c r="K9">
-        <v>0.9834541377169954</v>
+        <v>1.037620806797363</v>
       </c>
       <c r="L9">
-        <v>0.965530386738797</v>
+        <v>1.034497474544736</v>
       </c>
       <c r="M9">
-        <v>0.966095613868325</v>
+        <v>1.043586928273459</v>
       </c>
       <c r="N9">
-        <v>0.9710119784258753</v>
+        <v>1.012896094027844</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9155966764612586</v>
+        <v>0.9946994839883403</v>
       </c>
       <c r="D10">
-        <v>0.9494462516480973</v>
+        <v>1.019626025409168</v>
       </c>
       <c r="E10">
-        <v>0.9266531596643377</v>
+        <v>1.015532180145055</v>
       </c>
       <c r="F10">
-        <v>0.9271571351256126</v>
+        <v>1.024764941482508</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.010074267337938</v>
+        <v>1.04925854039458</v>
       </c>
       <c r="J10">
-        <v>0.9476112179813511</v>
+        <v>1.023124992499847</v>
       </c>
       <c r="K10">
-        <v>0.9647924723975834</v>
+        <v>1.033649742419804</v>
       </c>
       <c r="L10">
-        <v>0.9424862718869075</v>
+        <v>1.029626547105367</v>
       </c>
       <c r="M10">
-        <v>0.9429791374933795</v>
+        <v>1.038701004412349</v>
       </c>
       <c r="N10">
-        <v>0.9489569346034107</v>
+        <v>1.011503036694634</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9029556754029789</v>
+        <v>0.9915471699108775</v>
       </c>
       <c r="D11">
-        <v>0.9396482623356899</v>
+        <v>1.017275436345846</v>
       </c>
       <c r="E11">
-        <v>0.914665616761179</v>
+        <v>1.012776265865384</v>
       </c>
       <c r="F11">
-        <v>0.915140294571502</v>
+        <v>1.022008863179375</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.005736322284267</v>
+        <v>1.048290505244941</v>
       </c>
       <c r="J11">
-        <v>0.9370078731218191</v>
+        <v>1.021275874056045</v>
       </c>
       <c r="K11">
-        <v>0.9558057250783998</v>
+        <v>1.031878754770186</v>
       </c>
       <c r="L11">
-        <v>0.9313986514687796</v>
+        <v>1.027461196668342</v>
       </c>
       <c r="M11">
-        <v>0.9318620001317452</v>
+        <v>1.036527326830281</v>
       </c>
       <c r="N11">
-        <v>0.9383385317779572</v>
+        <v>1.010882905391898</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8980214651646177</v>
+        <v>0.9903632399600713</v>
       </c>
       <c r="D12">
-        <v>0.9358296158537533</v>
+        <v>1.016393137262646</v>
       </c>
       <c r="E12">
-        <v>0.9099912055028614</v>
+        <v>1.011742411183333</v>
       </c>
       <c r="F12">
-        <v>0.9104554313225759</v>
+        <v>1.020974717531804</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.004041961886424</v>
+        <v>1.047924675906468</v>
       </c>
       <c r="J12">
-        <v>0.9328701290808925</v>
+        <v>1.020581119495082</v>
       </c>
       <c r="K12">
-        <v>0.9522989084581968</v>
+        <v>1.031212868455678</v>
       </c>
       <c r="L12">
-        <v>0.9270729762039503</v>
+        <v>1.026648050639226</v>
       </c>
       <c r="M12">
-        <v>0.9275257848937635</v>
+        <v>1.035710813225638</v>
       </c>
       <c r="N12">
-        <v>0.934194911665887</v>
+        <v>1.010649904418607</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8990916396720813</v>
+        <v>0.9906177970874332</v>
       </c>
       <c r="D13">
-        <v>0.9366575444711868</v>
+        <v>1.016582815769628</v>
       </c>
       <c r="E13">
-        <v>0.9110048027864128</v>
+        <v>1.011964645539345</v>
       </c>
       <c r="F13">
-        <v>0.9114712475656842</v>
+        <v>1.02119702465778</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.004409483213418</v>
+        <v>1.048003434047245</v>
       </c>
       <c r="J13">
-        <v>0.9337674944325182</v>
+        <v>1.020730510446365</v>
       </c>
       <c r="K13">
-        <v>0.953059431126245</v>
+        <v>1.03135607365907</v>
       </c>
       <c r="L13">
-        <v>0.9280110517826075</v>
+        <v>1.026822879785224</v>
       </c>
       <c r="M13">
-        <v>0.9284660987471718</v>
+        <v>1.035886377132575</v>
       </c>
       <c r="N13">
-        <v>0.9350935513792407</v>
+        <v>1.010700006034724</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9025530230625813</v>
+        <v>0.99144957542134</v>
       </c>
       <c r="D14">
-        <v>0.9393365168534319</v>
+        <v>1.017202695010267</v>
       </c>
       <c r="E14">
-        <v>0.914284064122019</v>
+        <v>1.01269101779956</v>
       </c>
       <c r="F14">
-        <v>0.9147578679461928</v>
+        <v>1.021923595736052</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.005598071959177</v>
+        <v>1.048260394528106</v>
       </c>
       <c r="J14">
-        <v>0.9366701883755405</v>
+        <v>1.021218608864513</v>
       </c>
       <c r="K14">
-        <v>0.955519526458136</v>
+        <v>1.031823878838199</v>
       </c>
       <c r="L14">
-        <v>0.9310456084927531</v>
+        <v>1.027394164432662</v>
       </c>
       <c r="M14">
-        <v>0.9315080760810664</v>
+        <v>1.036460021823357</v>
       </c>
       <c r="N14">
-        <v>0.938000367480606</v>
+        <v>1.010863700333423</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9046523290160537</v>
+        <v>0.9919603159791108</v>
       </c>
       <c r="D15">
-        <v>0.9409621069466312</v>
+        <v>1.017583393514658</v>
       </c>
       <c r="E15">
-        <v>0.9162735583926069</v>
+        <v>1.013137195069706</v>
       </c>
       <c r="F15">
-        <v>0.9167519596494866</v>
+        <v>1.022369865119557</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.006318827720845</v>
+        <v>1.048417880982606</v>
       </c>
       <c r="J15">
-        <v>0.9384308225029245</v>
+        <v>1.021518283561411</v>
       </c>
       <c r="K15">
-        <v>0.9570117261525679</v>
+        <v>1.032111030544548</v>
       </c>
       <c r="L15">
-        <v>0.9328863599806271</v>
+        <v>1.027744968368429</v>
       </c>
       <c r="M15">
-        <v>0.9333534618229472</v>
+        <v>1.036812243517113</v>
       </c>
       <c r="N15">
-        <v>0.9397635019103985</v>
+        <v>1.010964202256606</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9164051180987183</v>
+        <v>0.9949069035554152</v>
       </c>
       <c r="D16">
-        <v>0.9500735618744611</v>
+        <v>1.019780760588658</v>
       </c>
       <c r="E16">
-        <v>0.927420391800955</v>
+        <v>1.015713679981032</v>
       </c>
       <c r="F16">
-        <v>0.9279263614977661</v>
+        <v>1.024946419768195</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.010351497718001</v>
+        <v>1.049321919254975</v>
       </c>
       <c r="J16">
-        <v>0.9482894452363863</v>
+        <v>1.023246622711514</v>
       </c>
       <c r="K16">
-        <v>0.9653672839847737</v>
+        <v>1.033766164767018</v>
       </c>
       <c r="L16">
-        <v>0.9431956155081165</v>
+        <v>1.02976903700108</v>
       </c>
       <c r="M16">
-        <v>0.943690489406087</v>
+        <v>1.038844008401292</v>
       </c>
       <c r="N16">
-        <v>0.9496361250189416</v>
+        <v>1.011543826599363</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9234078328771891</v>
+        <v>0.9967327328818938</v>
       </c>
       <c r="D17">
-        <v>0.9555105537760143</v>
+        <v>1.021143179386384</v>
       </c>
       <c r="E17">
-        <v>0.9340690149977097</v>
+        <v>1.017312220377353</v>
       </c>
       <c r="F17">
-        <v>0.9345928511982483</v>
+        <v>1.02654459056103</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.012751524781774</v>
+        <v>1.049878063630536</v>
       </c>
       <c r="J17">
-        <v>0.9541645481823794</v>
+        <v>1.02431704894871</v>
       </c>
       <c r="K17">
-        <v>0.9703463602311702</v>
+        <v>1.034790376979342</v>
       </c>
       <c r="L17">
-        <v>0.9493410218033047</v>
+        <v>1.031023363182135</v>
       </c>
       <c r="M17">
-        <v>0.9498538858256937</v>
+        <v>1.040102671974472</v>
       </c>
       <c r="N17">
-        <v>0.9555195712850019</v>
+        <v>1.011902799704403</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9273733557741942</v>
+        <v>0.9977898115524552</v>
       </c>
       <c r="D18">
-        <v>0.9585918965311933</v>
+        <v>1.021932240836485</v>
       </c>
       <c r="E18">
-        <v>0.9378362728060943</v>
+        <v>1.018238425740144</v>
       </c>
       <c r="F18">
-        <v>0.9383706920479948</v>
+        <v>1.027470430401708</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.01410939094019</v>
+        <v>1.05019857538815</v>
       </c>
       <c r="J18">
-        <v>0.9574916670447048</v>
+        <v>1.024936577966464</v>
       </c>
       <c r="K18">
-        <v>0.973165834024232</v>
+        <v>1.035382837681074</v>
       </c>
       <c r="L18">
-        <v>0.9528218455919485</v>
+        <v>1.031749595186114</v>
       </c>
       <c r="M18">
-        <v>0.9533453648728336</v>
+        <v>1.040831256917829</v>
       </c>
       <c r="N18">
-        <v>0.9588514150377375</v>
+        <v>1.012110557336318</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9287064759034911</v>
+        <v>0.9981489277559891</v>
       </c>
       <c r="D19">
-        <v>0.9596281562846788</v>
+        <v>1.022200349828378</v>
       </c>
       <c r="E19">
-        <v>0.9391031018369703</v>
+        <v>1.018553201052592</v>
       </c>
       <c r="F19">
-        <v>0.9396411535948866</v>
+        <v>1.02778505555957</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.014565646856433</v>
+        <v>1.050307209666306</v>
       </c>
       <c r="J19">
-        <v>0.9586101765845058</v>
+        <v>1.025147011843941</v>
       </c>
       <c r="K19">
-        <v>0.9741136373311765</v>
+        <v>1.035584022305943</v>
       </c>
       <c r="L19">
-        <v>0.953992134421372</v>
+        <v>1.031996317967252</v>
       </c>
       <c r="M19">
-        <v>0.9545193109741268</v>
+        <v>1.041078751942958</v>
       </c>
       <c r="N19">
-        <v>0.9599715129893799</v>
+        <v>1.012181124962709</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9226691085671244</v>
+        <v>0.9965376600429968</v>
       </c>
       <c r="D20">
-        <v>0.9549367326034272</v>
+        <v>1.020997588273467</v>
       </c>
       <c r="E20">
-        <v>0.9333674035884476</v>
+        <v>1.017141356425215</v>
       </c>
       <c r="F20">
-        <v>0.9338893052773651</v>
+        <v>1.026373781751434</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.012498466985427</v>
+        <v>1.04981879709629</v>
       </c>
       <c r="J20">
-        <v>0.9535447574038208</v>
+        <v>1.024202704626972</v>
       </c>
       <c r="K20">
-        <v>0.9698211157630793</v>
+        <v>1.034681002477808</v>
       </c>
       <c r="L20">
-        <v>0.9486926496208475</v>
+        <v>1.030889346677186</v>
       </c>
       <c r="M20">
-        <v>0.9492035658855816</v>
+        <v>1.039968208408576</v>
       </c>
       <c r="N20">
-        <v>0.9548989003324466</v>
+        <v>1.011864454196614</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9015407961892435</v>
+        <v>0.9912050023068361</v>
       </c>
       <c r="D21">
-        <v>0.9385529198388067</v>
+        <v>1.017020412926114</v>
       </c>
       <c r="E21">
-        <v>0.9133249587014768</v>
+        <v>1.012477404479981</v>
       </c>
       <c r="F21">
-        <v>0.9137965818629166</v>
+        <v>1.021709930193411</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.005250510302011</v>
+        <v>1.048184900475821</v>
       </c>
       <c r="J21">
-        <v>0.9358213040184487</v>
+        <v>1.021075097286699</v>
       </c>
       <c r="K21">
-        <v>0.9548000727146664</v>
+        <v>1.03168634717039</v>
       </c>
       <c r="L21">
-        <v>0.9301581327526423</v>
+        <v>1.02722618261837</v>
       </c>
       <c r="M21">
-        <v>0.9306184017959135</v>
+        <v>1.036291352604171</v>
       </c>
       <c r="N21">
-        <v>0.9371502776103585</v>
+        <v>1.010815570724185</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8868358797378824</v>
+        <v>0.9877764632869959</v>
       </c>
       <c r="D22">
-        <v>0.9271861725433125</v>
+        <v>1.014466443322712</v>
       </c>
       <c r="E22">
-        <v>0.899404729137198</v>
+        <v>1.009485800906977</v>
       </c>
       <c r="F22">
-        <v>0.8998473902294752</v>
+        <v>1.018717060562891</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.000200071138996</v>
+        <v>1.047121290572013</v>
       </c>
       <c r="J22">
-        <v>0.9234932923999637</v>
+        <v>1.019062695503428</v>
       </c>
       <c r="K22">
-        <v>0.9443525984777776</v>
+        <v>1.029756663255243</v>
       </c>
       <c r="L22">
-        <v>0.917272213843338</v>
+        <v>1.024871655636722</v>
       </c>
       <c r="M22">
-        <v>0.9177032439848481</v>
+        <v>1.033926629489181</v>
       </c>
       <c r="N22">
-        <v>0.9248047588013332</v>
+        <v>1.010140664286362</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8947871282287454</v>
+        <v>0.9896013999714638</v>
       </c>
       <c r="D23">
-        <v>0.9333284160379751</v>
+        <v>1.015825548983833</v>
       </c>
       <c r="E23">
-        <v>0.9069286398587552</v>
+        <v>1.011077486928103</v>
       </c>
       <c r="F23">
-        <v>0.9073863227922664</v>
+        <v>1.020309542621398</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.002931137744105</v>
+        <v>1.047688641953616</v>
       </c>
       <c r="J23">
-        <v>0.9301583024713946</v>
+        <v>1.020133985039175</v>
       </c>
       <c r="K23">
-        <v>0.9500006696646219</v>
+        <v>1.030784178340871</v>
       </c>
       <c r="L23">
-        <v>0.9242382773157483</v>
+        <v>1.026124840577596</v>
       </c>
       <c r="M23">
-        <v>0.9246844837486539</v>
+        <v>1.035185369711376</v>
       </c>
       <c r="N23">
-        <v>0.9314792339515525</v>
+        <v>1.010499947482412</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9230032708116939</v>
+        <v>0.9966258294178574</v>
       </c>
       <c r="D24">
-        <v>0.9551962932449778</v>
+        <v>1.021063391951946</v>
       </c>
       <c r="E24">
-        <v>0.9336847708136701</v>
+        <v>1.017218581603756</v>
       </c>
       <c r="F24">
-        <v>0.9342075461356723</v>
+        <v>1.026450982477019</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.012612941686976</v>
+        <v>1.049845589061325</v>
       </c>
       <c r="J24">
-        <v>0.9538251196170469</v>
+        <v>1.024254386812884</v>
       </c>
       <c r="K24">
-        <v>0.9700587106830092</v>
+        <v>1.03473043936487</v>
       </c>
       <c r="L24">
-        <v>0.9489859386548506</v>
+        <v>1.030949919611578</v>
       </c>
       <c r="M24">
-        <v>0.9494977345372687</v>
+        <v>1.040028983897588</v>
       </c>
       <c r="N24">
-        <v>0.9551796606921736</v>
+        <v>1.011881785895532</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9511257497517347</v>
+        <v>1.004469487715355</v>
       </c>
       <c r="D25">
-        <v>0.9770805448399709</v>
+        <v>1.026922593287139</v>
       </c>
       <c r="E25">
-        <v>0.9604340875127308</v>
+        <v>1.024103388816745</v>
       </c>
       <c r="F25">
-        <v>0.9610387469416842</v>
+        <v>1.033330299862193</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.022216140667523</v>
+        <v>1.052197084712743</v>
       </c>
       <c r="J25">
-        <v>0.9774178112692214</v>
+        <v>1.028847366338509</v>
       </c>
       <c r="K25">
-        <v>0.9900453906181922</v>
+        <v>1.039116867236126</v>
       </c>
       <c r="L25">
-        <v>0.9736793232644466</v>
+        <v>1.036338708409759</v>
       </c>
       <c r="M25">
-        <v>0.9742735781408529</v>
+        <v>1.045432336446507</v>
       </c>
       <c r="N25">
-        <v>0.9788058566726138</v>
+        <v>1.013421918523717</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_15/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.010499140425914</v>
+        <v>1.038832713560373</v>
       </c>
       <c r="D2">
-        <v>1.031432651995837</v>
+        <v>1.046212595572148</v>
       </c>
       <c r="E2">
-        <v>1.029416099337616</v>
+        <v>1.052225749829291</v>
       </c>
       <c r="F2">
-        <v>1.038633781685864</v>
+        <v>1.059278117667195</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053957052877462</v>
+        <v>1.040228922949046</v>
       </c>
       <c r="J2">
-        <v>1.032370295502782</v>
+        <v>1.043928010663119</v>
       </c>
       <c r="K2">
-        <v>1.042470782750934</v>
+        <v>1.048978663420078</v>
       </c>
       <c r="L2">
-        <v>1.040480285668403</v>
+        <v>1.054975070001183</v>
       </c>
       <c r="M2">
-        <v>1.049579898719037</v>
+        <v>1.062008058181431</v>
       </c>
       <c r="N2">
-        <v>1.014602978045269</v>
+        <v>1.018563602310288</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.014755743824333</v>
+        <v>1.03974038314036</v>
       </c>
       <c r="D3">
-        <v>1.034618781149371</v>
+        <v>1.046903100507909</v>
       </c>
       <c r="E3">
-        <v>1.033177397610415</v>
+        <v>1.053077726659516</v>
       </c>
       <c r="F3">
-        <v>1.042385521964152</v>
+        <v>1.060118304158643</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055170901710652</v>
+        <v>1.040405394124407</v>
       </c>
       <c r="J3">
-        <v>1.0348520782466</v>
+        <v>1.044480845720832</v>
       </c>
       <c r="K3">
-        <v>1.044827070602477</v>
+        <v>1.049481080248608</v>
       </c>
       <c r="L3">
-        <v>1.043402662041784</v>
+        <v>1.055639749587014</v>
       </c>
       <c r="M3">
-        <v>1.05250334187911</v>
+        <v>1.062662376942531</v>
       </c>
       <c r="N3">
-        <v>1.015434791580258</v>
+        <v>1.018747886645176</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.017456857430186</v>
+        <v>1.040328218689094</v>
       </c>
       <c r="D4">
-        <v>1.036641298814619</v>
+        <v>1.047350022283729</v>
       </c>
       <c r="E4">
-        <v>1.035568952955356</v>
+        <v>1.053629772242466</v>
       </c>
       <c r="F4">
-        <v>1.04476955707974</v>
+        <v>1.060662506162755</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055927617220945</v>
+        <v>1.040518002300102</v>
       </c>
       <c r="J4">
-        <v>1.036424316197904</v>
+        <v>1.044838439787375</v>
       </c>
       <c r="K4">
-        <v>1.046316728401079</v>
+        <v>1.049805618780901</v>
       </c>
       <c r="L4">
-        <v>1.045256238901433</v>
+        <v>1.056069955655988</v>
       </c>
       <c r="M4">
-        <v>1.05435608777596</v>
+        <v>1.063085661189265</v>
       </c>
       <c r="N4">
-        <v>1.015961644573191</v>
+        <v>1.018867052642491</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.018580092409317</v>
+        <v>1.040575466161091</v>
       </c>
       <c r="D5">
-        <v>1.037482460928293</v>
+        <v>1.047537935004309</v>
       </c>
       <c r="E5">
-        <v>1.036564563409953</v>
+        <v>1.053862032390386</v>
       </c>
       <c r="F5">
-        <v>1.045761684354892</v>
+        <v>1.060891417458649</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05623899015943</v>
+        <v>1.040564963609865</v>
       </c>
       <c r="J5">
-        <v>1.037077456286299</v>
+        <v>1.044988740714488</v>
       </c>
       <c r="K5">
-        <v>1.046934809226393</v>
+        <v>1.049941919742914</v>
       </c>
       <c r="L5">
-        <v>1.046026786618635</v>
+        <v>1.056250840170799</v>
       </c>
       <c r="M5">
-        <v>1.055125921352392</v>
+        <v>1.063263583583357</v>
       </c>
       <c r="N5">
-        <v>1.016180481193431</v>
+        <v>1.018917130854643</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.018767978343269</v>
+        <v>1.040616987180659</v>
       </c>
       <c r="D6">
-        <v>1.037623169246917</v>
+        <v>1.047569487900482</v>
       </c>
       <c r="E6">
-        <v>1.036731165092491</v>
+        <v>1.053901040408866</v>
       </c>
       <c r="F6">
-        <v>1.045927682277982</v>
+        <v>1.060929860173182</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05629087877665</v>
+        <v>1.040572826362609</v>
       </c>
       <c r="J6">
-        <v>1.037186668651032</v>
+        <v>1.045013975013318</v>
       </c>
       <c r="K6">
-        <v>1.047038114529734</v>
+        <v>1.049964797318552</v>
       </c>
       <c r="L6">
-        <v>1.046155662280021</v>
+        <v>1.056281212954072</v>
       </c>
       <c r="M6">
-        <v>1.055254655696281</v>
+        <v>1.063293455951095</v>
       </c>
       <c r="N6">
-        <v>1.016217071360374</v>
+        <v>1.018925538069971</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.01747191398895</v>
+        <v>1.040331521946519</v>
       </c>
       <c r="D7">
-        <v>1.036652573899313</v>
+        <v>1.047352533079466</v>
       </c>
       <c r="E7">
-        <v>1.035582294445981</v>
+        <v>1.053632875008024</v>
       </c>
       <c r="F7">
-        <v>1.044782853294354</v>
+        <v>1.060665564382896</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055931804161238</v>
+        <v>1.040518631290294</v>
       </c>
       <c r="J7">
-        <v>1.036433073958213</v>
+        <v>1.044840448241432</v>
       </c>
       <c r="K7">
-        <v>1.04632501906057</v>
+        <v>1.049807440573232</v>
       </c>
       <c r="L7">
-        <v>1.045266568834921</v>
+        <v>1.056072372543777</v>
       </c>
       <c r="M7">
-        <v>1.054366409601228</v>
+        <v>1.063088038702205</v>
       </c>
       <c r="N7">
-        <v>1.015964579005834</v>
+        <v>1.018867721865891</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.011948953610896</v>
+        <v>1.039139357806607</v>
       </c>
       <c r="D8">
-        <v>1.032517680656402</v>
+        <v>1.046445929329755</v>
       </c>
       <c r="E8">
-        <v>1.030696192430294</v>
+        <v>1.052513521106256</v>
       </c>
       <c r="F8">
-        <v>1.039910919958945</v>
+        <v>1.05956194870131</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054373304999354</v>
+        <v>1.040288888977494</v>
       </c>
       <c r="J8">
-        <v>1.033216130164716</v>
+        <v>1.044114869490045</v>
       </c>
       <c r="K8">
-        <v>1.043274482844852</v>
+        <v>1.04914857246975</v>
       </c>
       <c r="L8">
-        <v>1.041475817893073</v>
+        <v>1.05519967715291</v>
       </c>
       <c r="M8">
-        <v>1.050576106081394</v>
+        <v>1.062229208870497</v>
       </c>
       <c r="N8">
-        <v>1.014886496196066</v>
+        <v>1.018625898016108</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.00178942573782</v>
+        <v>1.037042596657584</v>
       </c>
       <c r="D9">
-        <v>1.024919495127216</v>
+        <v>1.044849361579161</v>
       </c>
       <c r="E9">
-        <v>1.021747652097486</v>
+        <v>1.050546967640213</v>
       </c>
       <c r="F9">
-        <v>1.030977208716043</v>
+        <v>1.057621488852503</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051400999134672</v>
+        <v>1.039871984245197</v>
       </c>
       <c r="J9">
-        <v>1.02727915262867</v>
+        <v>1.042835384551658</v>
       </c>
       <c r="K9">
-        <v>1.037620806797363</v>
+        <v>1.047983339284501</v>
       </c>
       <c r="L9">
-        <v>1.034497474544736</v>
+        <v>1.053662810307522</v>
       </c>
       <c r="M9">
-        <v>1.043586928273459</v>
+        <v>1.060715111041961</v>
       </c>
       <c r="N9">
-        <v>1.012896094027844</v>
+        <v>1.018199192851902</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9946994839883403</v>
+        <v>1.035647512262885</v>
       </c>
       <c r="D10">
-        <v>1.019626025409168</v>
+        <v>1.043785742742214</v>
       </c>
       <c r="E10">
-        <v>1.015532180145055</v>
+        <v>1.049239991320062</v>
       </c>
       <c r="F10">
-        <v>1.024764941482508</v>
+        <v>1.056330810538029</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04925854039458</v>
+        <v>1.039585979891499</v>
       </c>
       <c r="J10">
-        <v>1.023124992499847</v>
+        <v>1.041981843389702</v>
       </c>
       <c r="K10">
-        <v>1.033649742419804</v>
+        <v>1.047203752480256</v>
       </c>
       <c r="L10">
-        <v>1.029626547105367</v>
+        <v>1.052638942487593</v>
       </c>
       <c r="M10">
-        <v>1.038701004412349</v>
+        <v>1.059705308257536</v>
       </c>
       <c r="N10">
-        <v>1.011503036694634</v>
+        <v>1.017914357751486</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9915471699108775</v>
+        <v>1.035044095122419</v>
       </c>
       <c r="D11">
-        <v>1.017275436345846</v>
+        <v>1.043325384770063</v>
       </c>
       <c r="E11">
-        <v>1.012776265865384</v>
+        <v>1.048675039551272</v>
       </c>
       <c r="F11">
-        <v>1.022008863179375</v>
+        <v>1.055772656520118</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048290505244941</v>
+        <v>1.039460233006459</v>
       </c>
       <c r="J11">
-        <v>1.021275874056045</v>
+        <v>1.041612134286761</v>
       </c>
       <c r="K11">
-        <v>1.031878754770186</v>
+        <v>1.046865542660532</v>
       </c>
       <c r="L11">
-        <v>1.027461196668342</v>
+        <v>1.052195781985176</v>
       </c>
       <c r="M11">
-        <v>1.036527326830281</v>
+        <v>1.059267974688397</v>
       </c>
       <c r="N11">
-        <v>1.010882905391898</v>
+        <v>1.017790939741102</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9903632399600713</v>
+        <v>1.034820060083588</v>
       </c>
       <c r="D12">
-        <v>1.016393137262646</v>
+        <v>1.043154418408681</v>
       </c>
       <c r="E12">
-        <v>1.011742411183333</v>
+        <v>1.048465339828559</v>
       </c>
       <c r="F12">
-        <v>1.020974717531804</v>
+        <v>1.055565442884151</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047924675906468</v>
+        <v>1.039413239544164</v>
       </c>
       <c r="J12">
-        <v>1.020581119495082</v>
+        <v>1.041474790949826</v>
       </c>
       <c r="K12">
-        <v>1.031212868455678</v>
+        <v>1.046739821014792</v>
       </c>
       <c r="L12">
-        <v>1.026648050639226</v>
+        <v>1.05203120099983</v>
       </c>
       <c r="M12">
-        <v>1.035710813225638</v>
+        <v>1.05910551859597</v>
       </c>
       <c r="N12">
-        <v>1.010649904418607</v>
+        <v>1.017745084817424</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9906177970874332</v>
+        <v>1.034868111771365</v>
       </c>
       <c r="D13">
-        <v>1.016582815769628</v>
+        <v>1.04319108984053</v>
       </c>
       <c r="E13">
-        <v>1.011964645539345</v>
+        <v>1.048510314383754</v>
       </c>
       <c r="F13">
-        <v>1.02119702465778</v>
+        <v>1.055609885924514</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048003434047245</v>
+        <v>1.039423332707438</v>
       </c>
       <c r="J13">
-        <v>1.020730510446365</v>
+        <v>1.041504252309029</v>
       </c>
       <c r="K13">
-        <v>1.03135607365907</v>
+        <v>1.046766793034586</v>
       </c>
       <c r="L13">
-        <v>1.026822879785224</v>
+        <v>1.052066502865781</v>
       </c>
       <c r="M13">
-        <v>1.035886377132575</v>
+        <v>1.059140366451024</v>
       </c>
       <c r="N13">
-        <v>1.010700006034724</v>
+        <v>1.017754921389569</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.99144957542134</v>
+        <v>1.03502557424952</v>
       </c>
       <c r="D14">
-        <v>1.017202695010267</v>
+        <v>1.043311251993668</v>
       </c>
       <c r="E14">
-        <v>1.01269101779956</v>
+        <v>1.048657702667535</v>
       </c>
       <c r="F14">
-        <v>1.021923595736052</v>
+        <v>1.055755525930244</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048260394528106</v>
+        <v>1.039456354331374</v>
       </c>
       <c r="J14">
-        <v>1.021218608864513</v>
+        <v>1.041600781782178</v>
       </c>
       <c r="K14">
-        <v>1.031823878838199</v>
+        <v>1.046855152410314</v>
       </c>
       <c r="L14">
-        <v>1.027394164432662</v>
+        <v>1.05218217707917</v>
       </c>
       <c r="M14">
-        <v>1.036460021823357</v>
+        <v>1.059254546231867</v>
       </c>
       <c r="N14">
-        <v>1.010863700333423</v>
+        <v>1.017787149600757</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9919603159791108</v>
+        <v>1.035122605494217</v>
       </c>
       <c r="D15">
-        <v>1.017583393514658</v>
+        <v>1.043385292030351</v>
       </c>
       <c r="E15">
-        <v>1.013137195069706</v>
+        <v>1.048748533182931</v>
       </c>
       <c r="F15">
-        <v>1.022369865119557</v>
+        <v>1.055845274121215</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048417880982606</v>
+        <v>1.039476662238592</v>
       </c>
       <c r="J15">
-        <v>1.021518283561411</v>
+        <v>1.041660254569037</v>
       </c>
       <c r="K15">
-        <v>1.032111030544548</v>
+        <v>1.046909580925369</v>
       </c>
       <c r="L15">
-        <v>1.027744968368429</v>
+        <v>1.052253451604513</v>
       </c>
       <c r="M15">
-        <v>1.036812243517113</v>
+        <v>1.05932489475737</v>
       </c>
       <c r="N15">
-        <v>1.010964202256606</v>
+        <v>1.017807004890496</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9949069035554152</v>
+        <v>1.035687573159707</v>
       </c>
       <c r="D16">
-        <v>1.019780760588658</v>
+        <v>1.043816299454299</v>
       </c>
       <c r="E16">
-        <v>1.015713679981032</v>
+        <v>1.049277506045764</v>
       </c>
       <c r="F16">
-        <v>1.024946419768195</v>
+        <v>1.056367868660293</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049321919254975</v>
+        <v>1.039594285223759</v>
       </c>
       <c r="J16">
-        <v>1.023246622711514</v>
+        <v>1.042006377330891</v>
       </c>
       <c r="K16">
-        <v>1.033766164767018</v>
+        <v>1.047226184897677</v>
       </c>
       <c r="L16">
-        <v>1.02976903700108</v>
+        <v>1.05266835752071</v>
       </c>
       <c r="M16">
-        <v>1.038844008401292</v>
+        <v>1.059734331034535</v>
       </c>
       <c r="N16">
-        <v>1.011543826599363</v>
+        <v>1.017922546895385</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9967327328818938</v>
+        <v>1.036042141001986</v>
       </c>
       <c r="D17">
-        <v>1.021143179386384</v>
+        <v>1.044086712658848</v>
       </c>
       <c r="E17">
-        <v>1.017312220377353</v>
+        <v>1.049609579641336</v>
       </c>
       <c r="F17">
-        <v>1.02654459056103</v>
+        <v>1.05669587190484</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049878063630536</v>
+        <v>1.039667557493002</v>
       </c>
       <c r="J17">
-        <v>1.02431704894871</v>
+        <v>1.042223459630556</v>
       </c>
       <c r="K17">
-        <v>1.034790376979342</v>
+        <v>1.047424610768591</v>
       </c>
       <c r="L17">
-        <v>1.031023363182135</v>
+        <v>1.052928666465784</v>
       </c>
       <c r="M17">
-        <v>1.040102671974472</v>
+        <v>1.059991138571869</v>
       </c>
       <c r="N17">
-        <v>1.011902799704403</v>
+        <v>1.017995001543065</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9977898115524552</v>
+        <v>1.036249018369953</v>
       </c>
       <c r="D18">
-        <v>1.021932240836485</v>
+        <v>1.044244458907787</v>
       </c>
       <c r="E18">
-        <v>1.018238425740144</v>
+        <v>1.049803366765695</v>
       </c>
       <c r="F18">
-        <v>1.027470430401708</v>
+        <v>1.056887259829961</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05019857538815</v>
+        <v>1.03971011210196</v>
       </c>
       <c r="J18">
-        <v>1.024936577966464</v>
+        <v>1.042350068394647</v>
       </c>
       <c r="K18">
-        <v>1.035382837681074</v>
+        <v>1.047540287042529</v>
       </c>
       <c r="L18">
-        <v>1.031749595186114</v>
+        <v>1.053080517644051</v>
       </c>
       <c r="M18">
-        <v>1.040831256917829</v>
+        <v>1.060140922026941</v>
       </c>
       <c r="N18">
-        <v>1.012110557336318</v>
+        <v>1.018037255121926</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9981489277559891</v>
+        <v>1.036319569014172</v>
       </c>
       <c r="D19">
-        <v>1.022200349828378</v>
+        <v>1.044298249441297</v>
       </c>
       <c r="E19">
-        <v>1.018553201052592</v>
+        <v>1.049869459097489</v>
       </c>
       <c r="F19">
-        <v>1.02778505555957</v>
+        <v>1.056952529848747</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050307209666306</v>
+        <v>1.039724590914155</v>
       </c>
       <c r="J19">
-        <v>1.025147011843941</v>
+        <v>1.042393236697564</v>
       </c>
       <c r="K19">
-        <v>1.035584022305943</v>
+        <v>1.047579719078356</v>
       </c>
       <c r="L19">
-        <v>1.031996317967252</v>
+        <v>1.05313229787727</v>
       </c>
       <c r="M19">
-        <v>1.041078751942958</v>
+        <v>1.060191992907611</v>
       </c>
       <c r="N19">
-        <v>1.012181124962709</v>
+        <v>1.018051661132132</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9965376600429968</v>
+        <v>1.036004092604951</v>
       </c>
       <c r="D20">
-        <v>1.020997588273467</v>
+        <v>1.044057697924551</v>
       </c>
       <c r="E20">
-        <v>1.017141356425215</v>
+        <v>1.049573941530321</v>
       </c>
       <c r="F20">
-        <v>1.026373781751434</v>
+        <v>1.056660673092672</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04981879709629</v>
+        <v>1.039659715084638</v>
       </c>
       <c r="J20">
-        <v>1.024202704626972</v>
+        <v>1.04220016995296</v>
       </c>
       <c r="K20">
-        <v>1.034681002477808</v>
+        <v>1.047403327973122</v>
       </c>
       <c r="L20">
-        <v>1.030889346677186</v>
+        <v>1.052900735972527</v>
       </c>
       <c r="M20">
-        <v>1.039968208408576</v>
+        <v>1.059963586374419</v>
       </c>
       <c r="N20">
-        <v>1.011864454196614</v>
+        <v>1.017987228668611</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9912050023068361</v>
+        <v>1.034979202677435</v>
       </c>
       <c r="D21">
-        <v>1.017020412926114</v>
+        <v>1.043275866363236</v>
       </c>
       <c r="E21">
-        <v>1.012477404479981</v>
+        <v>1.048614296378477</v>
       </c>
       <c r="F21">
-        <v>1.021709930193411</v>
+        <v>1.055712635538783</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048184900475821</v>
+        <v>1.039446638160519</v>
       </c>
       <c r="J21">
-        <v>1.021075097286699</v>
+        <v>1.041572356716086</v>
       </c>
       <c r="K21">
-        <v>1.03168634717039</v>
+        <v>1.046829135401742</v>
       </c>
       <c r="L21">
-        <v>1.02722618261837</v>
+        <v>1.052148113107201</v>
       </c>
       <c r="M21">
-        <v>1.036291352604171</v>
+        <v>1.05922092342257</v>
       </c>
       <c r="N21">
-        <v>1.010815570724185</v>
+        <v>1.01777765952315</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9877764632869959</v>
+        <v>1.034335398415218</v>
       </c>
       <c r="D22">
-        <v>1.014466443322712</v>
+        <v>1.042784478497508</v>
       </c>
       <c r="E22">
-        <v>1.009485800906977</v>
+        <v>1.048011789479262</v>
       </c>
       <c r="F22">
-        <v>1.018717060562891</v>
+        <v>1.055117201764474</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047121290572013</v>
+        <v>1.039311016968912</v>
       </c>
       <c r="J22">
-        <v>1.019062695503428</v>
+        <v>1.041177528313662</v>
       </c>
       <c r="K22">
-        <v>1.029756663255243</v>
+        <v>1.046467566048798</v>
       </c>
       <c r="L22">
-        <v>1.024871655636722</v>
+        <v>1.051675075134251</v>
       </c>
       <c r="M22">
-        <v>1.033926629489181</v>
+        <v>1.058753919203041</v>
       </c>
       <c r="N22">
-        <v>1.010140664286362</v>
+        <v>1.017645825981718</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9896013999714638</v>
+        <v>1.034676635392297</v>
       </c>
       <c r="D23">
-        <v>1.015825548983833</v>
+        <v>1.043044954830981</v>
       </c>
       <c r="E23">
-        <v>1.011077486928103</v>
+        <v>1.048331107710531</v>
       </c>
       <c r="F23">
-        <v>1.020309542621398</v>
+        <v>1.055432791705626</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047688641953616</v>
+        <v>1.039383068599722</v>
       </c>
       <c r="J23">
-        <v>1.020133985039175</v>
+        <v>1.041386843164423</v>
       </c>
       <c r="K23">
-        <v>1.030784178340871</v>
+        <v>1.046659292687439</v>
       </c>
       <c r="L23">
-        <v>1.026124840577596</v>
+        <v>1.051925825335214</v>
       </c>
       <c r="M23">
-        <v>1.035185369711376</v>
+        <v>1.05900149242694</v>
       </c>
       <c r="N23">
-        <v>1.010499947482412</v>
+        <v>1.017715719846391</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9966258294178574</v>
+        <v>1.036021284840331</v>
       </c>
       <c r="D24">
-        <v>1.021063391951946</v>
+        <v>1.044070808376144</v>
       </c>
       <c r="E24">
-        <v>1.017218581603756</v>
+        <v>1.049590044567739</v>
       </c>
       <c r="F24">
-        <v>1.026450982477019</v>
+        <v>1.056676577707203</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049845589061325</v>
+        <v>1.039663259299592</v>
       </c>
       <c r="J24">
-        <v>1.024254386812884</v>
+        <v>1.042210693591943</v>
       </c>
       <c r="K24">
-        <v>1.03473043936487</v>
+        <v>1.047412944944538</v>
       </c>
       <c r="L24">
-        <v>1.030949919611578</v>
+        <v>1.052913356506635</v>
       </c>
       <c r="M24">
-        <v>1.040028983897588</v>
+        <v>1.059976036051459</v>
       </c>
       <c r="N24">
-        <v>1.011881785895532</v>
+        <v>1.017990740920734</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.004469487715355</v>
+        <v>1.037584179523649</v>
       </c>
       <c r="D25">
-        <v>1.026922593287139</v>
+        <v>1.045261985884645</v>
       </c>
       <c r="E25">
-        <v>1.024103388816745</v>
+        <v>1.05105466056499</v>
       </c>
       <c r="F25">
-        <v>1.033330299862193</v>
+        <v>1.058122629749449</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052197084712743</v>
+        <v>1.039981189556859</v>
       </c>
       <c r="J25">
-        <v>1.028847366338509</v>
+        <v>1.043166264276866</v>
       </c>
       <c r="K25">
-        <v>1.039116867236126</v>
+        <v>1.048285072759113</v>
       </c>
       <c r="L25">
-        <v>1.036338708409759</v>
+        <v>1.054060008075679</v>
       </c>
       <c r="M25">
-        <v>1.045432336446507</v>
+        <v>1.06110661919648</v>
       </c>
       <c r="N25">
-        <v>1.013421918523717</v>
+        <v>1.018309572553644</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_15/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.038832713560373</v>
+        <v>1.010499140425914</v>
       </c>
       <c r="D2">
-        <v>1.046212595572148</v>
+        <v>1.031432651995837</v>
       </c>
       <c r="E2">
-        <v>1.052225749829291</v>
+        <v>1.029416099337616</v>
       </c>
       <c r="F2">
-        <v>1.059278117667195</v>
+        <v>1.038633781685864</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040228922949046</v>
+        <v>1.053957052877462</v>
       </c>
       <c r="J2">
-        <v>1.043928010663119</v>
+        <v>1.032370295502781</v>
       </c>
       <c r="K2">
-        <v>1.048978663420078</v>
+        <v>1.042470782750934</v>
       </c>
       <c r="L2">
-        <v>1.054975070001183</v>
+        <v>1.040480285668402</v>
       </c>
       <c r="M2">
-        <v>1.062008058181431</v>
+        <v>1.049579898719037</v>
       </c>
       <c r="N2">
-        <v>1.018563602310288</v>
+        <v>1.014602978045268</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.03974038314036</v>
+        <v>1.014755743824332</v>
       </c>
       <c r="D3">
-        <v>1.046903100507909</v>
+        <v>1.034618781149371</v>
       </c>
       <c r="E3">
-        <v>1.053077726659516</v>
+        <v>1.033177397610414</v>
       </c>
       <c r="F3">
-        <v>1.060118304158643</v>
+        <v>1.042385521964151</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040405394124407</v>
+        <v>1.055170901710651</v>
       </c>
       <c r="J3">
-        <v>1.044480845720832</v>
+        <v>1.034852078246599</v>
       </c>
       <c r="K3">
-        <v>1.049481080248608</v>
+        <v>1.044827070602477</v>
       </c>
       <c r="L3">
-        <v>1.055639749587014</v>
+        <v>1.043402662041784</v>
       </c>
       <c r="M3">
-        <v>1.062662376942531</v>
+        <v>1.052503341879109</v>
       </c>
       <c r="N3">
-        <v>1.018747886645176</v>
+        <v>1.015434791580258</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040328218689094</v>
+        <v>1.017456857430186</v>
       </c>
       <c r="D4">
-        <v>1.047350022283729</v>
+        <v>1.03664129881462</v>
       </c>
       <c r="E4">
-        <v>1.053629772242466</v>
+        <v>1.035568952955356</v>
       </c>
       <c r="F4">
-        <v>1.060662506162755</v>
+        <v>1.04476955707974</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040518002300102</v>
+        <v>1.055927617220945</v>
       </c>
       <c r="J4">
-        <v>1.044838439787375</v>
+        <v>1.036424316197905</v>
       </c>
       <c r="K4">
-        <v>1.049805618780901</v>
+        <v>1.046316728401079</v>
       </c>
       <c r="L4">
-        <v>1.056069955655988</v>
+        <v>1.045256238901434</v>
       </c>
       <c r="M4">
-        <v>1.063085661189265</v>
+        <v>1.05435608777596</v>
       </c>
       <c r="N4">
-        <v>1.018867052642491</v>
+        <v>1.01596164457319</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.040575466161091</v>
+        <v>1.018580092409317</v>
       </c>
       <c r="D5">
-        <v>1.047537935004309</v>
+        <v>1.037482460928292</v>
       </c>
       <c r="E5">
-        <v>1.053862032390386</v>
+        <v>1.036564563409953</v>
       </c>
       <c r="F5">
-        <v>1.060891417458649</v>
+        <v>1.045761684354892</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040564963609865</v>
+        <v>1.05623899015943</v>
       </c>
       <c r="J5">
-        <v>1.044988740714488</v>
+        <v>1.037077456286299</v>
       </c>
       <c r="K5">
-        <v>1.049941919742914</v>
+        <v>1.046934809226393</v>
       </c>
       <c r="L5">
-        <v>1.056250840170799</v>
+        <v>1.046026786618634</v>
       </c>
       <c r="M5">
-        <v>1.063263583583357</v>
+        <v>1.055125921352392</v>
       </c>
       <c r="N5">
-        <v>1.018917130854643</v>
+        <v>1.01618048119343</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.040616987180659</v>
+        <v>1.018767978343269</v>
       </c>
       <c r="D6">
-        <v>1.047569487900482</v>
+        <v>1.037623169246917</v>
       </c>
       <c r="E6">
-        <v>1.053901040408866</v>
+        <v>1.036731165092491</v>
       </c>
       <c r="F6">
-        <v>1.060929860173182</v>
+        <v>1.045927682277982</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040572826362609</v>
+        <v>1.05629087877665</v>
       </c>
       <c r="J6">
-        <v>1.045013975013318</v>
+        <v>1.037186668651032</v>
       </c>
       <c r="K6">
-        <v>1.049964797318552</v>
+        <v>1.047038114529734</v>
       </c>
       <c r="L6">
-        <v>1.056281212954072</v>
+        <v>1.04615566228002</v>
       </c>
       <c r="M6">
-        <v>1.063293455951095</v>
+        <v>1.05525465569628</v>
       </c>
       <c r="N6">
-        <v>1.018925538069971</v>
+        <v>1.016217071360374</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040331521946519</v>
+        <v>1.01747191398895</v>
       </c>
       <c r="D7">
-        <v>1.047352533079466</v>
+        <v>1.036652573899313</v>
       </c>
       <c r="E7">
-        <v>1.053632875008024</v>
+        <v>1.035582294445981</v>
       </c>
       <c r="F7">
-        <v>1.060665564382896</v>
+        <v>1.044782853294354</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040518631290294</v>
+        <v>1.055931804161239</v>
       </c>
       <c r="J7">
-        <v>1.044840448241432</v>
+        <v>1.036433073958213</v>
       </c>
       <c r="K7">
-        <v>1.049807440573232</v>
+        <v>1.04632501906057</v>
       </c>
       <c r="L7">
-        <v>1.056072372543777</v>
+        <v>1.045266568834921</v>
       </c>
       <c r="M7">
-        <v>1.063088038702205</v>
+        <v>1.054366409601228</v>
       </c>
       <c r="N7">
-        <v>1.018867721865891</v>
+        <v>1.015964579005834</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.039139357806607</v>
+        <v>1.011948953610896</v>
       </c>
       <c r="D8">
-        <v>1.046445929329755</v>
+        <v>1.032517680656402</v>
       </c>
       <c r="E8">
-        <v>1.052513521106256</v>
+        <v>1.030696192430293</v>
       </c>
       <c r="F8">
-        <v>1.05956194870131</v>
+        <v>1.039910919958944</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040288888977494</v>
+        <v>1.054373304999354</v>
       </c>
       <c r="J8">
-        <v>1.044114869490045</v>
+        <v>1.033216130164716</v>
       </c>
       <c r="K8">
-        <v>1.04914857246975</v>
+        <v>1.043274482844852</v>
       </c>
       <c r="L8">
-        <v>1.05519967715291</v>
+        <v>1.041475817893073</v>
       </c>
       <c r="M8">
-        <v>1.062229208870497</v>
+        <v>1.050576106081393</v>
       </c>
       <c r="N8">
-        <v>1.018625898016108</v>
+        <v>1.014886496196066</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.037042596657584</v>
+        <v>1.001789425737821</v>
       </c>
       <c r="D9">
-        <v>1.044849361579161</v>
+        <v>1.024919495127216</v>
       </c>
       <c r="E9">
-        <v>1.050546967640213</v>
+        <v>1.021747652097486</v>
       </c>
       <c r="F9">
-        <v>1.057621488852503</v>
+        <v>1.030977208716043</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039871984245197</v>
+        <v>1.051400999134672</v>
       </c>
       <c r="J9">
-        <v>1.042835384551658</v>
+        <v>1.027279152628671</v>
       </c>
       <c r="K9">
-        <v>1.047983339284501</v>
+        <v>1.037620806797363</v>
       </c>
       <c r="L9">
-        <v>1.053662810307522</v>
+        <v>1.034497474544736</v>
       </c>
       <c r="M9">
-        <v>1.060715111041961</v>
+        <v>1.043586928273459</v>
       </c>
       <c r="N9">
-        <v>1.018199192851902</v>
+        <v>1.012896094027844</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.035647512262885</v>
+        <v>0.9946994839883401</v>
       </c>
       <c r="D10">
-        <v>1.043785742742214</v>
+        <v>1.019626025409168</v>
       </c>
       <c r="E10">
-        <v>1.049239991320062</v>
+        <v>1.015532180145055</v>
       </c>
       <c r="F10">
-        <v>1.056330810538029</v>
+        <v>1.024764941482508</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039585979891499</v>
+        <v>1.04925854039458</v>
       </c>
       <c r="J10">
-        <v>1.041981843389702</v>
+        <v>1.023124992499847</v>
       </c>
       <c r="K10">
-        <v>1.047203752480256</v>
+        <v>1.033649742419804</v>
       </c>
       <c r="L10">
-        <v>1.052638942487593</v>
+        <v>1.029626547105366</v>
       </c>
       <c r="M10">
-        <v>1.059705308257536</v>
+        <v>1.038701004412348</v>
       </c>
       <c r="N10">
-        <v>1.017914357751486</v>
+        <v>1.011503036694634</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035044095122419</v>
+        <v>0.9915471699108778</v>
       </c>
       <c r="D11">
-        <v>1.043325384770063</v>
+        <v>1.017275436345847</v>
       </c>
       <c r="E11">
-        <v>1.048675039551272</v>
+        <v>1.012776265865385</v>
       </c>
       <c r="F11">
-        <v>1.055772656520118</v>
+        <v>1.022008863179375</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039460233006459</v>
+        <v>1.048290505244942</v>
       </c>
       <c r="J11">
-        <v>1.041612134286761</v>
+        <v>1.021275874056045</v>
       </c>
       <c r="K11">
-        <v>1.046865542660532</v>
+        <v>1.031878754770186</v>
       </c>
       <c r="L11">
-        <v>1.052195781985176</v>
+        <v>1.027461196668343</v>
       </c>
       <c r="M11">
-        <v>1.059267974688397</v>
+        <v>1.036527326830281</v>
       </c>
       <c r="N11">
-        <v>1.017790939741102</v>
+        <v>1.010882905391898</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.034820060083588</v>
+        <v>0.990363239960072</v>
       </c>
       <c r="D12">
-        <v>1.043154418408681</v>
+        <v>1.016393137262646</v>
       </c>
       <c r="E12">
-        <v>1.048465339828559</v>
+        <v>1.011742411183334</v>
       </c>
       <c r="F12">
-        <v>1.055565442884151</v>
+        <v>1.020974717531804</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039413239544164</v>
+        <v>1.047924675906468</v>
       </c>
       <c r="J12">
-        <v>1.041474790949826</v>
+        <v>1.020581119495083</v>
       </c>
       <c r="K12">
-        <v>1.046739821014792</v>
+        <v>1.031212868455678</v>
       </c>
       <c r="L12">
-        <v>1.05203120099983</v>
+        <v>1.026648050639227</v>
       </c>
       <c r="M12">
-        <v>1.05910551859597</v>
+        <v>1.035710813225639</v>
       </c>
       <c r="N12">
-        <v>1.017745084817424</v>
+        <v>1.010649904418607</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.034868111771365</v>
+        <v>0.9906177970874327</v>
       </c>
       <c r="D13">
-        <v>1.04319108984053</v>
+        <v>1.016582815769627</v>
       </c>
       <c r="E13">
-        <v>1.048510314383754</v>
+        <v>1.011964645539345</v>
       </c>
       <c r="F13">
-        <v>1.055609885924514</v>
+        <v>1.021197024657779</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039423332707438</v>
+        <v>1.048003434047245</v>
       </c>
       <c r="J13">
-        <v>1.041504252309029</v>
+        <v>1.020730510446364</v>
       </c>
       <c r="K13">
-        <v>1.046766793034586</v>
+        <v>1.031356073659069</v>
       </c>
       <c r="L13">
-        <v>1.052066502865781</v>
+        <v>1.026822879785223</v>
       </c>
       <c r="M13">
-        <v>1.059140366451024</v>
+        <v>1.035886377132574</v>
       </c>
       <c r="N13">
-        <v>1.017754921389569</v>
+        <v>1.010700006034724</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.03502557424952</v>
+        <v>0.9914495754213397</v>
       </c>
       <c r="D14">
-        <v>1.043311251993668</v>
+        <v>1.017202695010267</v>
       </c>
       <c r="E14">
-        <v>1.048657702667535</v>
+        <v>1.01269101779956</v>
       </c>
       <c r="F14">
-        <v>1.055755525930244</v>
+        <v>1.021923595736051</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039456354331374</v>
+        <v>1.048260394528106</v>
       </c>
       <c r="J14">
-        <v>1.041600781782178</v>
+        <v>1.021218608864513</v>
       </c>
       <c r="K14">
-        <v>1.046855152410314</v>
+        <v>1.031823878838199</v>
       </c>
       <c r="L14">
-        <v>1.05218217707917</v>
+        <v>1.027394164432662</v>
       </c>
       <c r="M14">
-        <v>1.059254546231867</v>
+        <v>1.036460021823357</v>
       </c>
       <c r="N14">
-        <v>1.017787149600757</v>
+        <v>1.010863700333423</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035122605494217</v>
+        <v>0.9919603159791115</v>
       </c>
       <c r="D15">
-        <v>1.043385292030351</v>
+        <v>1.017583393514658</v>
       </c>
       <c r="E15">
-        <v>1.048748533182931</v>
+        <v>1.013137195069706</v>
       </c>
       <c r="F15">
-        <v>1.055845274121215</v>
+        <v>1.022369865119558</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039476662238592</v>
+        <v>1.048417880982606</v>
       </c>
       <c r="J15">
-        <v>1.041660254569037</v>
+        <v>1.021518283561411</v>
       </c>
       <c r="K15">
-        <v>1.046909580925369</v>
+        <v>1.032111030544549</v>
       </c>
       <c r="L15">
-        <v>1.052253451604513</v>
+        <v>1.02774496836843</v>
       </c>
       <c r="M15">
-        <v>1.05932489475737</v>
+        <v>1.036812243517113</v>
       </c>
       <c r="N15">
-        <v>1.017807004890496</v>
+        <v>1.010964202256606</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.035687573159707</v>
+        <v>0.9949069035554151</v>
       </c>
       <c r="D16">
-        <v>1.043816299454299</v>
+        <v>1.019780760588658</v>
       </c>
       <c r="E16">
-        <v>1.049277506045764</v>
+        <v>1.015713679981031</v>
       </c>
       <c r="F16">
-        <v>1.056367868660293</v>
+        <v>1.024946419768194</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039594285223759</v>
+        <v>1.049321919254975</v>
       </c>
       <c r="J16">
-        <v>1.042006377330891</v>
+        <v>1.023246622711514</v>
       </c>
       <c r="K16">
-        <v>1.047226184897677</v>
+        <v>1.033766164767017</v>
       </c>
       <c r="L16">
-        <v>1.05266835752071</v>
+        <v>1.02976903700108</v>
       </c>
       <c r="M16">
-        <v>1.059734331034535</v>
+        <v>1.038844008401291</v>
       </c>
       <c r="N16">
-        <v>1.017922546895385</v>
+        <v>1.011543826599362</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.036042141001986</v>
+        <v>0.9967327328818943</v>
       </c>
       <c r="D17">
-        <v>1.044086712658848</v>
+        <v>1.021143179386385</v>
       </c>
       <c r="E17">
-        <v>1.049609579641336</v>
+        <v>1.017312220377354</v>
       </c>
       <c r="F17">
-        <v>1.05669587190484</v>
+        <v>1.026544590561031</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039667557493002</v>
+        <v>1.049878063630536</v>
       </c>
       <c r="J17">
-        <v>1.042223459630556</v>
+        <v>1.02431704894871</v>
       </c>
       <c r="K17">
-        <v>1.047424610768591</v>
+        <v>1.034790376979343</v>
       </c>
       <c r="L17">
-        <v>1.052928666465784</v>
+        <v>1.031023363182135</v>
       </c>
       <c r="M17">
-        <v>1.059991138571869</v>
+        <v>1.040102671974473</v>
       </c>
       <c r="N17">
-        <v>1.017995001543065</v>
+        <v>1.011902799704403</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.036249018369953</v>
+        <v>0.9977898115524551</v>
       </c>
       <c r="D18">
-        <v>1.044244458907787</v>
+        <v>1.021932240836485</v>
       </c>
       <c r="E18">
-        <v>1.049803366765695</v>
+        <v>1.018238425740145</v>
       </c>
       <c r="F18">
-        <v>1.056887259829961</v>
+        <v>1.027470430401707</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03971011210196</v>
+        <v>1.05019857538815</v>
       </c>
       <c r="J18">
-        <v>1.042350068394647</v>
+        <v>1.024936577966464</v>
       </c>
       <c r="K18">
-        <v>1.047540287042529</v>
+        <v>1.035382837681074</v>
       </c>
       <c r="L18">
-        <v>1.053080517644051</v>
+        <v>1.031749595186114</v>
       </c>
       <c r="M18">
-        <v>1.060140922026941</v>
+        <v>1.040831256917829</v>
       </c>
       <c r="N18">
-        <v>1.018037255121926</v>
+        <v>1.012110557336319</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.036319569014172</v>
+        <v>0.9981489277559894</v>
       </c>
       <c r="D19">
-        <v>1.044298249441297</v>
+        <v>1.022200349828378</v>
       </c>
       <c r="E19">
-        <v>1.049869459097489</v>
+        <v>1.018553201052592</v>
       </c>
       <c r="F19">
-        <v>1.056952529848747</v>
+        <v>1.02778505555957</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039724590914155</v>
+        <v>1.050307209666306</v>
       </c>
       <c r="J19">
-        <v>1.042393236697564</v>
+        <v>1.025147011843941</v>
       </c>
       <c r="K19">
-        <v>1.047579719078356</v>
+        <v>1.035584022305943</v>
       </c>
       <c r="L19">
-        <v>1.05313229787727</v>
+        <v>1.031996317967252</v>
       </c>
       <c r="M19">
-        <v>1.060191992907611</v>
+        <v>1.041078751942958</v>
       </c>
       <c r="N19">
-        <v>1.018051661132132</v>
+        <v>1.012181124962709</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.036004092604951</v>
+        <v>0.996537660042997</v>
       </c>
       <c r="D20">
-        <v>1.044057697924551</v>
+        <v>1.020997588273467</v>
       </c>
       <c r="E20">
-        <v>1.049573941530321</v>
+        <v>1.017141356425215</v>
       </c>
       <c r="F20">
-        <v>1.056660673092672</v>
+        <v>1.026373781751434</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039659715084638</v>
+        <v>1.04981879709629</v>
       </c>
       <c r="J20">
-        <v>1.04220016995296</v>
+        <v>1.024202704626972</v>
       </c>
       <c r="K20">
-        <v>1.047403327973122</v>
+        <v>1.034681002477809</v>
       </c>
       <c r="L20">
-        <v>1.052900735972527</v>
+        <v>1.030889346677186</v>
       </c>
       <c r="M20">
-        <v>1.059963586374419</v>
+        <v>1.039968208408576</v>
       </c>
       <c r="N20">
-        <v>1.017987228668611</v>
+        <v>1.011864454196614</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.034979202677435</v>
+        <v>0.9912050023068356</v>
       </c>
       <c r="D21">
-        <v>1.043275866363236</v>
+        <v>1.017020412926113</v>
       </c>
       <c r="E21">
-        <v>1.048614296378477</v>
+        <v>1.01247740447998</v>
       </c>
       <c r="F21">
-        <v>1.055712635538783</v>
+        <v>1.02170993019341</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039446638160519</v>
+        <v>1.048184900475821</v>
       </c>
       <c r="J21">
-        <v>1.041572356716086</v>
+        <v>1.021075097286698</v>
       </c>
       <c r="K21">
-        <v>1.046829135401742</v>
+        <v>1.03168634717039</v>
       </c>
       <c r="L21">
-        <v>1.052148113107201</v>
+        <v>1.02722618261837</v>
       </c>
       <c r="M21">
-        <v>1.05922092342257</v>
+        <v>1.03629135260417</v>
       </c>
       <c r="N21">
-        <v>1.01777765952315</v>
+        <v>1.010815570724185</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034335398415218</v>
+        <v>0.9877764632869962</v>
       </c>
       <c r="D22">
-        <v>1.042784478497508</v>
+        <v>1.014466443322712</v>
       </c>
       <c r="E22">
-        <v>1.048011789479262</v>
+        <v>1.009485800906977</v>
       </c>
       <c r="F22">
-        <v>1.055117201764474</v>
+        <v>1.018717060562892</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039311016968912</v>
+        <v>1.047121290572014</v>
       </c>
       <c r="J22">
-        <v>1.041177528313662</v>
+        <v>1.019062695503428</v>
       </c>
       <c r="K22">
-        <v>1.046467566048798</v>
+        <v>1.029756663255244</v>
       </c>
       <c r="L22">
-        <v>1.051675075134251</v>
+        <v>1.024871655636722</v>
       </c>
       <c r="M22">
-        <v>1.058753919203041</v>
+        <v>1.033926629489181</v>
       </c>
       <c r="N22">
-        <v>1.017645825981718</v>
+        <v>1.010140664286362</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.034676635392297</v>
+        <v>0.9896013999714637</v>
       </c>
       <c r="D23">
-        <v>1.043044954830981</v>
+        <v>1.015825548983832</v>
       </c>
       <c r="E23">
-        <v>1.048331107710531</v>
+        <v>1.011077486928102</v>
       </c>
       <c r="F23">
-        <v>1.055432791705626</v>
+        <v>1.020309542621398</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039383068599722</v>
+        <v>1.047688641953616</v>
       </c>
       <c r="J23">
-        <v>1.041386843164423</v>
+        <v>1.020133985039174</v>
       </c>
       <c r="K23">
-        <v>1.046659292687439</v>
+        <v>1.030784178340871</v>
       </c>
       <c r="L23">
-        <v>1.051925825335214</v>
+        <v>1.026124840577596</v>
       </c>
       <c r="M23">
-        <v>1.05900149242694</v>
+        <v>1.035185369711376</v>
       </c>
       <c r="N23">
-        <v>1.017715719846391</v>
+        <v>1.010499947482412</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.036021284840331</v>
+        <v>0.9966258294178578</v>
       </c>
       <c r="D24">
-        <v>1.044070808376144</v>
+        <v>1.021063391951946</v>
       </c>
       <c r="E24">
-        <v>1.049590044567739</v>
+        <v>1.017218581603756</v>
       </c>
       <c r="F24">
-        <v>1.056676577707203</v>
+        <v>1.02645098247702</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039663259299592</v>
+        <v>1.049845589061325</v>
       </c>
       <c r="J24">
-        <v>1.042210693591943</v>
+        <v>1.024254386812885</v>
       </c>
       <c r="K24">
-        <v>1.047412944944538</v>
+        <v>1.03473043936487</v>
       </c>
       <c r="L24">
-        <v>1.052913356506635</v>
+        <v>1.030949919611579</v>
       </c>
       <c r="M24">
-        <v>1.059976036051459</v>
+        <v>1.040028983897588</v>
       </c>
       <c r="N24">
-        <v>1.017990740920734</v>
+        <v>1.011881785895532</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.037584179523649</v>
+        <v>1.004469487715356</v>
       </c>
       <c r="D25">
-        <v>1.045261985884645</v>
+        <v>1.026922593287141</v>
       </c>
       <c r="E25">
-        <v>1.05105466056499</v>
+        <v>1.024103388816747</v>
       </c>
       <c r="F25">
-        <v>1.058122629749449</v>
+        <v>1.033330299862194</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039981189556859</v>
+        <v>1.052197084712744</v>
       </c>
       <c r="J25">
-        <v>1.043166264276866</v>
+        <v>1.02884736633851</v>
       </c>
       <c r="K25">
-        <v>1.048285072759113</v>
+        <v>1.039116867236127</v>
       </c>
       <c r="L25">
-        <v>1.054060008075679</v>
+        <v>1.036338708409761</v>
       </c>
       <c r="M25">
-        <v>1.06110661919648</v>
+        <v>1.045432336446509</v>
       </c>
       <c r="N25">
-        <v>1.018309572553644</v>
+        <v>1.013421918523717</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_15/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.010499140425914</v>
+        <v>0.9961116141415709</v>
       </c>
       <c r="D2">
-        <v>1.031432651995837</v>
+        <v>1.017105441486236</v>
       </c>
       <c r="E2">
-        <v>1.029416099337616</v>
+        <v>1.004313654266193</v>
       </c>
       <c r="F2">
-        <v>1.038633781685864</v>
+        <v>1.023303140712186</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053957052877462</v>
+        <v>1.042419710811635</v>
       </c>
       <c r="J2">
-        <v>1.032370295502781</v>
+        <v>1.018409251437731</v>
       </c>
       <c r="K2">
-        <v>1.042470782750934</v>
+        <v>1.028331504984198</v>
       </c>
       <c r="L2">
-        <v>1.040480285668402</v>
+        <v>1.015713218389343</v>
       </c>
       <c r="M2">
-        <v>1.049579898719037</v>
+        <v>1.034447098176756</v>
       </c>
       <c r="N2">
-        <v>1.014602978045268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.009306858180688</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.035834942735856</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.031102973925351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014755743824332</v>
+        <v>1.001228042088573</v>
       </c>
       <c r="D3">
-        <v>1.034618781149371</v>
+        <v>1.02044702606481</v>
       </c>
       <c r="E3">
-        <v>1.033177397610414</v>
+        <v>1.008916765037086</v>
       </c>
       <c r="F3">
-        <v>1.042385521964151</v>
+        <v>1.026584018906201</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.055170901710651</v>
+        <v>1.043464390471479</v>
       </c>
       <c r="J3">
-        <v>1.034852078246599</v>
+        <v>1.021685285329742</v>
       </c>
       <c r="K3">
-        <v>1.044827070602477</v>
+        <v>1.030824800734222</v>
       </c>
       <c r="L3">
-        <v>1.043402662041784</v>
+        <v>1.019436811460222</v>
       </c>
       <c r="M3">
-        <v>1.052503341879109</v>
+        <v>1.036887686437585</v>
       </c>
       <c r="N3">
-        <v>1.015434791580258</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.010486573460821</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.037766514689513</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.032863298986505</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017456857430186</v>
+        <v>1.004465658051129</v>
       </c>
       <c r="D4">
-        <v>1.03664129881462</v>
+        <v>1.02256496430223</v>
       </c>
       <c r="E4">
-        <v>1.035568952955356</v>
+        <v>1.011835375566547</v>
       </c>
       <c r="F4">
-        <v>1.04476955707974</v>
+        <v>1.028669476130141</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.055927617220945</v>
+        <v>1.044114740926803</v>
       </c>
       <c r="J4">
-        <v>1.036424316197905</v>
+        <v>1.023755817567965</v>
       </c>
       <c r="K4">
-        <v>1.046316728401079</v>
+        <v>1.032398469454055</v>
       </c>
       <c r="L4">
-        <v>1.045256238901434</v>
+        <v>1.021793026200859</v>
       </c>
       <c r="M4">
-        <v>1.05435608777596</v>
+        <v>1.038433773965129</v>
       </c>
       <c r="N4">
-        <v>1.01596164457319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.011231222543851</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.038990142921503</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.033976943755035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018580092409317</v>
+        <v>1.005815658238484</v>
       </c>
       <c r="D5">
-        <v>1.037482460928292</v>
+        <v>1.023451334983881</v>
       </c>
       <c r="E5">
-        <v>1.036564563409953</v>
+        <v>1.013054244258616</v>
       </c>
       <c r="F5">
-        <v>1.045761684354892</v>
+        <v>1.029540211255519</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05623899015943</v>
+        <v>1.044385252233355</v>
       </c>
       <c r="J5">
-        <v>1.037077456286299</v>
+        <v>1.024620445909946</v>
       </c>
       <c r="K5">
-        <v>1.046934809226393</v>
+        <v>1.033057010701287</v>
       </c>
       <c r="L5">
-        <v>1.046026786618634</v>
+        <v>1.022776913515991</v>
       </c>
       <c r="M5">
-        <v>1.055125921352392</v>
+        <v>1.039078719470918</v>
       </c>
       <c r="N5">
-        <v>1.01618048119343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.011542823565279</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.039500574937525</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.034449821224631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018767978343269</v>
+        <v>1.006048311486611</v>
       </c>
       <c r="D6">
-        <v>1.037623169246917</v>
+        <v>1.023607160417479</v>
       </c>
       <c r="E6">
-        <v>1.036731165092491</v>
+        <v>1.013265020365853</v>
       </c>
       <c r="F6">
-        <v>1.045927682277982</v>
+        <v>1.029689173538346</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05629087877665</v>
+        <v>1.044434100673319</v>
       </c>
       <c r="J6">
-        <v>1.037186668651032</v>
+        <v>1.02477174400698</v>
       </c>
       <c r="K6">
-        <v>1.047038114529734</v>
+        <v>1.033174558978546</v>
       </c>
       <c r="L6">
-        <v>1.04615566228002</v>
+        <v>1.022948243369398</v>
       </c>
       <c r="M6">
-        <v>1.05525465569628</v>
+        <v>1.039189791921871</v>
       </c>
       <c r="N6">
-        <v>1.016217071360374</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.011598416184815</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.039588481451992</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.03454174847316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.01747191398895</v>
+        <v>1.004502558563559</v>
       </c>
       <c r="D7">
-        <v>1.036652573899313</v>
+        <v>1.022597328245473</v>
       </c>
       <c r="E7">
-        <v>1.035582294445981</v>
+        <v>1.011870418877573</v>
       </c>
       <c r="F7">
-        <v>1.044782853294354</v>
+        <v>1.028689975927608</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.055931804161239</v>
+        <v>1.044128590218624</v>
       </c>
       <c r="J7">
-        <v>1.036433073958213</v>
+        <v>1.023785736707875</v>
       </c>
       <c r="K7">
-        <v>1.04632501906057</v>
+        <v>1.032427551242244</v>
       </c>
       <c r="L7">
-        <v>1.045266568834921</v>
+        <v>1.021824704666532</v>
       </c>
       <c r="M7">
-        <v>1.054366409601228</v>
+        <v>1.038451153561512</v>
       </c>
       <c r="N7">
-        <v>1.015964579005834</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.011244966453801</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.039003897735532</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.034017776068054</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.011948953610896</v>
+        <v>0.9978802818138998</v>
       </c>
       <c r="D8">
-        <v>1.032517680656402</v>
+        <v>1.018270035211852</v>
       </c>
       <c r="E8">
-        <v>1.030696192430293</v>
+        <v>1.005905878654807</v>
       </c>
       <c r="F8">
-        <v>1.039910919958944</v>
+        <v>1.024431183658169</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054373304999354</v>
+        <v>1.042791165034665</v>
       </c>
       <c r="J8">
-        <v>1.033216130164716</v>
+        <v>1.019550151781262</v>
       </c>
       <c r="K8">
-        <v>1.043274482844852</v>
+        <v>1.029208086030248</v>
       </c>
       <c r="L8">
-        <v>1.041475817893073</v>
+        <v>1.017006440958145</v>
       </c>
       <c r="M8">
-        <v>1.050576106081393</v>
+        <v>1.035290083753629</v>
       </c>
       <c r="N8">
-        <v>1.014886496196066</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.009721833867084</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.036502113340521</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.031745930019233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001789425737821</v>
+        <v>0.9855872004210748</v>
       </c>
       <c r="D9">
-        <v>1.024919495127216</v>
+        <v>1.010254924641242</v>
       </c>
       <c r="E9">
-        <v>1.021747652097486</v>
+        <v>0.9948796111161816</v>
       </c>
       <c r="F9">
-        <v>1.030977208716043</v>
+        <v>1.016610266658573</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051400999134672</v>
+        <v>1.040214649307973</v>
       </c>
       <c r="J9">
-        <v>1.027279152628671</v>
+        <v>1.011659382949969</v>
       </c>
       <c r="K9">
-        <v>1.037620806797363</v>
+        <v>1.02318378540099</v>
       </c>
       <c r="L9">
-        <v>1.034497474544736</v>
+        <v>1.008056312953249</v>
       </c>
       <c r="M9">
-        <v>1.043586928273459</v>
+        <v>1.029439481942912</v>
       </c>
       <c r="N9">
-        <v>1.012896094027844</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.0068720099493</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.031871713230917</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.027483031719776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9946994839883401</v>
+        <v>0.9770679486638464</v>
       </c>
       <c r="D10">
-        <v>1.019626025409168</v>
+        <v>1.004744317100378</v>
       </c>
       <c r="E10">
-        <v>1.015532180145055</v>
+        <v>0.9872862851561559</v>
       </c>
       <c r="F10">
-        <v>1.024764941482508</v>
+        <v>1.011422192336571</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04925854039458</v>
+        <v>1.038415202486634</v>
       </c>
       <c r="J10">
-        <v>1.023124992499847</v>
+        <v>1.006221905913208</v>
       </c>
       <c r="K10">
-        <v>1.033649742419804</v>
+        <v>1.019028436548249</v>
       </c>
       <c r="L10">
-        <v>1.029626547105366</v>
+        <v>1.001888947552026</v>
       </c>
       <c r="M10">
-        <v>1.038701004412348</v>
+        <v>1.025588233246815</v>
       </c>
       <c r="N10">
-        <v>1.011503036694634</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.004920089068691</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.02887570917163</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.024561892223462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9915471699108778</v>
+        <v>0.9742436443632739</v>
       </c>
       <c r="D11">
-        <v>1.017275436345847</v>
+        <v>1.003058594952748</v>
       </c>
       <c r="E11">
-        <v>1.012776265865385</v>
+        <v>0.9848722942204371</v>
       </c>
       <c r="F11">
-        <v>1.022008863179375</v>
+        <v>1.011086716222132</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048290505244942</v>
+        <v>1.038108839260721</v>
       </c>
       <c r="J11">
-        <v>1.021275874056045</v>
+        <v>1.004728609137216</v>
       </c>
       <c r="K11">
-        <v>1.031878754770186</v>
+        <v>1.017923060245673</v>
       </c>
       <c r="L11">
-        <v>1.027461196668343</v>
+        <v>1.000085249165649</v>
       </c>
       <c r="M11">
-        <v>1.036527326830281</v>
+        <v>1.025802538783787</v>
       </c>
       <c r="N11">
-        <v>1.010882905391898</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.004514584665675</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.029486092937134</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.023813656556028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.990363239960072</v>
+        <v>0.9735184907147036</v>
       </c>
       <c r="D12">
-        <v>1.016393137262646</v>
+        <v>1.002687637642799</v>
       </c>
       <c r="E12">
-        <v>1.011742411183334</v>
+        <v>0.9842980061021394</v>
       </c>
       <c r="F12">
-        <v>1.020974717531804</v>
+        <v>1.011633692968956</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047924675906468</v>
+        <v>1.038168618284587</v>
       </c>
       <c r="J12">
-        <v>1.020581119495083</v>
+        <v>1.004487473874117</v>
       </c>
       <c r="K12">
-        <v>1.031212868455678</v>
+        <v>1.017763527266235</v>
       </c>
       <c r="L12">
-        <v>1.026648050639227</v>
+        <v>0.9997323437190088</v>
       </c>
       <c r="M12">
-        <v>1.035710813225639</v>
+        <v>1.026541352993374</v>
       </c>
       <c r="N12">
-        <v>1.010649904418607</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.004534113898458</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.030399738226485</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.02370085833951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9906177970874327</v>
+        <v>0.9743869840275614</v>
       </c>
       <c r="D13">
-        <v>1.016582815769627</v>
+        <v>1.003328838610997</v>
       </c>
       <c r="E13">
-        <v>1.011964645539345</v>
+        <v>0.9851246475362805</v>
       </c>
       <c r="F13">
-        <v>1.021197024657779</v>
+        <v>1.012926416090272</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048003434047245</v>
+        <v>1.038531346496784</v>
       </c>
       <c r="J13">
-        <v>1.020730510446364</v>
+        <v>1.005219578640767</v>
       </c>
       <c r="K13">
-        <v>1.031356073659069</v>
+        <v>1.018348719423411</v>
       </c>
       <c r="L13">
-        <v>1.026822879785223</v>
+        <v>1.000497481614221</v>
       </c>
       <c r="M13">
-        <v>1.035886377132574</v>
+        <v>1.027766870071907</v>
       </c>
       <c r="N13">
-        <v>1.010700006034724</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.004894752626122</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.031647378937329</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.024112090139034</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9914495754213397</v>
+        <v>0.9757094277569176</v>
       </c>
       <c r="D14">
-        <v>1.017202695010267</v>
+        <v>1.004232322600667</v>
       </c>
       <c r="E14">
-        <v>1.01269101779956</v>
+        <v>0.9863308553254375</v>
       </c>
       <c r="F14">
-        <v>1.021923595736051</v>
+        <v>1.01415364315638</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048260394528106</v>
+        <v>1.038918855439241</v>
       </c>
       <c r="J14">
-        <v>1.021218608864513</v>
+        <v>1.006165994477664</v>
       </c>
       <c r="K14">
-        <v>1.031823878838199</v>
+        <v>1.019091727182006</v>
       </c>
       <c r="L14">
-        <v>1.027394164432662</v>
+        <v>1.001532553248611</v>
       </c>
       <c r="M14">
-        <v>1.036460021823357</v>
+        <v>1.028830114589238</v>
       </c>
       <c r="N14">
-        <v>1.010863700333423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.005299458694815</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.032662164141719</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.024638881371673</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9919603159791115</v>
+        <v>0.9763909599346585</v>
       </c>
       <c r="D15">
-        <v>1.017583393514658</v>
+        <v>1.004684705906968</v>
       </c>
       <c r="E15">
-        <v>1.013137195069706</v>
+        <v>0.9869429932022687</v>
       </c>
       <c r="F15">
-        <v>1.022369865119558</v>
+        <v>1.014649942365142</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048417880982606</v>
+        <v>1.039087249779625</v>
       </c>
       <c r="J15">
-        <v>1.021518283561411</v>
+        <v>1.006622727599297</v>
       </c>
       <c r="K15">
-        <v>1.032111030544549</v>
+        <v>1.019447373413472</v>
       </c>
       <c r="L15">
-        <v>1.02774496836843</v>
+        <v>1.002042095525957</v>
       </c>
       <c r="M15">
-        <v>1.036812243517113</v>
+        <v>1.029230348110935</v>
       </c>
       <c r="N15">
-        <v>1.010964202256606</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.005478216845281</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.033016229515654</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.024896296415634</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9949069035554151</v>
+        <v>0.9798321852926518</v>
       </c>
       <c r="D16">
-        <v>1.019780760588658</v>
+        <v>1.006893035243858</v>
       </c>
       <c r="E16">
-        <v>1.015713679981031</v>
+        <v>0.9899934885332562</v>
       </c>
       <c r="F16">
-        <v>1.024946419768194</v>
+        <v>1.01664299310268</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049321919254975</v>
+        <v>1.039792707711653</v>
       </c>
       <c r="J16">
-        <v>1.023246622711514</v>
+        <v>1.008790038933607</v>
       </c>
       <c r="K16">
-        <v>1.033766164767017</v>
+        <v>1.021102623808373</v>
       </c>
       <c r="L16">
-        <v>1.02976903700108</v>
+        <v>1.004508578163773</v>
       </c>
       <c r="M16">
-        <v>1.038844008401291</v>
+        <v>1.030682302352399</v>
       </c>
       <c r="N16">
-        <v>1.011543826599362</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.006236539946247</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.034124940222236</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.026069851583595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9967327328818943</v>
+        <v>0.9817845466932347</v>
       </c>
       <c r="D17">
-        <v>1.021143179386385</v>
+        <v>1.008119118108995</v>
       </c>
       <c r="E17">
-        <v>1.017312220377354</v>
+        <v>0.9917085733540451</v>
       </c>
       <c r="F17">
-        <v>1.026544590561031</v>
+        <v>1.017528396824094</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049878063630536</v>
+        <v>1.040130839046147</v>
       </c>
       <c r="J17">
-        <v>1.02431704894871</v>
+        <v>1.009961173826856</v>
       </c>
       <c r="K17">
-        <v>1.034790376979343</v>
+        <v>1.021986271779836</v>
       </c>
       <c r="L17">
-        <v>1.031023363182135</v>
+        <v>1.005863560122305</v>
       </c>
       <c r="M17">
-        <v>1.040102671974473</v>
+        <v>1.03123591475313</v>
       </c>
       <c r="N17">
-        <v>1.011902799704403</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.00660770719636</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.03443283714978</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.026697256128873</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9977898115524551</v>
+        <v>0.9826056455651208</v>
       </c>
       <c r="D18">
-        <v>1.021932240836485</v>
+        <v>1.008580663193396</v>
       </c>
       <c r="E18">
-        <v>1.018238425740145</v>
+        <v>0.9923965121594203</v>
       </c>
       <c r="F18">
-        <v>1.027470430401707</v>
+        <v>1.01742672559482</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.05019857538815</v>
+        <v>1.040160994391934</v>
       </c>
       <c r="J18">
-        <v>1.024936577966464</v>
+        <v>1.010342288367015</v>
       </c>
       <c r="K18">
-        <v>1.035382837681074</v>
+        <v>1.022252908927215</v>
       </c>
       <c r="L18">
-        <v>1.031749595186114</v>
+        <v>1.006347795238242</v>
       </c>
       <c r="M18">
-        <v>1.040831256917829</v>
+        <v>1.030951281458292</v>
       </c>
       <c r="N18">
-        <v>1.012110557336319</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.006661878200667</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.033968721177563</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.026873994879041</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9981489277559894</v>
+        <v>0.9824132204931707</v>
       </c>
       <c r="D19">
-        <v>1.022200349828378</v>
+        <v>1.008370672310786</v>
       </c>
       <c r="E19">
-        <v>1.018553201052592</v>
+        <v>0.9921639597858593</v>
       </c>
       <c r="F19">
-        <v>1.02778505555957</v>
+        <v>1.016386700868489</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050307209666306</v>
+        <v>1.039922412317619</v>
       </c>
       <c r="J19">
-        <v>1.025147011843941</v>
+        <v>1.01001888301637</v>
       </c>
       <c r="K19">
-        <v>1.035584022305943</v>
+        <v>1.021982687714384</v>
       </c>
       <c r="L19">
-        <v>1.031996317967252</v>
+        <v>1.006054060409425</v>
       </c>
       <c r="M19">
-        <v>1.041078751942958</v>
+        <v>1.029865389121416</v>
       </c>
       <c r="N19">
-        <v>1.012181124962709</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.006446281729307</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.032782193841702</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.026689413524527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.996537660042997</v>
+        <v>0.9793392365683434</v>
       </c>
       <c r="D20">
-        <v>1.020997588273467</v>
+        <v>1.006233245698309</v>
       </c>
       <c r="E20">
-        <v>1.017141356425215</v>
+        <v>0.9893134970413647</v>
       </c>
       <c r="F20">
-        <v>1.026373781751434</v>
+        <v>1.012801779288472</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.04981879709629</v>
+        <v>1.038917231333445</v>
       </c>
       <c r="J20">
-        <v>1.024202704626972</v>
+        <v>1.007690502952155</v>
       </c>
       <c r="K20">
-        <v>1.034681002477809</v>
+        <v>1.02016736940072</v>
       </c>
       <c r="L20">
-        <v>1.030889346677186</v>
+        <v>1.003546895039884</v>
       </c>
       <c r="M20">
-        <v>1.039968208408576</v>
+        <v>1.02662319894925</v>
       </c>
       <c r="N20">
-        <v>1.011864454196614</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.005457445590942</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.029684112834307</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.025409866761825</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9912050023068356</v>
+        <v>0.9727117662091209</v>
       </c>
       <c r="D21">
-        <v>1.017020412926113</v>
+        <v>1.001928773416392</v>
       </c>
       <c r="E21">
-        <v>1.01247740447998</v>
+        <v>0.9834012128913039</v>
       </c>
       <c r="F21">
-        <v>1.02170993019341</v>
+        <v>1.008519996480338</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048184900475821</v>
+        <v>1.037440452929175</v>
       </c>
       <c r="J21">
-        <v>1.021075097286698</v>
+        <v>1.003396424004232</v>
       </c>
       <c r="K21">
-        <v>1.03168634717039</v>
+        <v>1.016873696498906</v>
       </c>
       <c r="L21">
-        <v>1.02722618261837</v>
+        <v>0.9987040289902173</v>
       </c>
       <c r="M21">
-        <v>1.03629135260417</v>
+        <v>1.023341732957778</v>
       </c>
       <c r="N21">
-        <v>1.010815570724185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.00389059529293</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.027045678286569</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.023084348763612</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9877764632869962</v>
+        <v>0.9684701920165848</v>
       </c>
       <c r="D22">
-        <v>1.014466443322712</v>
+        <v>0.9991804544647529</v>
       </c>
       <c r="E22">
-        <v>1.009485800906977</v>
+        <v>0.9796299186285035</v>
       </c>
       <c r="F22">
-        <v>1.018717060562892</v>
+        <v>1.00588552282235</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047121290572014</v>
+        <v>1.036496448513886</v>
       </c>
       <c r="J22">
-        <v>1.019062695503428</v>
+        <v>1.000659463622945</v>
       </c>
       <c r="K22">
-        <v>1.029756663255244</v>
+        <v>1.014768164213746</v>
       </c>
       <c r="L22">
-        <v>1.024871655636722</v>
+        <v>0.995616007248191</v>
       </c>
       <c r="M22">
-        <v>1.033926629489181</v>
+        <v>1.021341281106507</v>
       </c>
       <c r="N22">
-        <v>1.010140664286362</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.002894576111688</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.025462422648951</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.02158188495296</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9896013999714637</v>
+        <v>0.9707101720030176</v>
       </c>
       <c r="D23">
-        <v>1.015825548983832</v>
+        <v>1.000623412942601</v>
       </c>
       <c r="E23">
-        <v>1.011077486928102</v>
+        <v>0.9816187781148837</v>
       </c>
       <c r="F23">
-        <v>1.020309542621398</v>
+        <v>1.00727817723726</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047688641953616</v>
+        <v>1.036989784019138</v>
       </c>
       <c r="J23">
-        <v>1.020133985039174</v>
+        <v>1.002098859372245</v>
       </c>
       <c r="K23">
-        <v>1.030784178340871</v>
+        <v>1.015870004600917</v>
       </c>
       <c r="L23">
-        <v>1.026124840577596</v>
+        <v>0.9972418946063736</v>
       </c>
       <c r="M23">
-        <v>1.035185369711376</v>
+        <v>1.022397314160631</v>
       </c>
       <c r="N23">
-        <v>1.010499947482412</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.003414965223171</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.026298219420998</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.022351159415354</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9966258294178578</v>
+        <v>0.9793246873749516</v>
       </c>
       <c r="D24">
-        <v>1.021063391951946</v>
+        <v>1.006199974919511</v>
       </c>
       <c r="E24">
-        <v>1.017218581603756</v>
+        <v>0.9892886833402951</v>
       </c>
       <c r="F24">
-        <v>1.02645098247702</v>
+        <v>1.012660822228913</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049845589061325</v>
+        <v>1.038876527736189</v>
       </c>
       <c r="J24">
-        <v>1.024254386812885</v>
+        <v>1.007642520646902</v>
       </c>
       <c r="K24">
-        <v>1.03473043936487</v>
+        <v>1.020119079892324</v>
       </c>
       <c r="L24">
-        <v>1.030949919611579</v>
+        <v>1.003506549564492</v>
       </c>
       <c r="M24">
-        <v>1.040028983897588</v>
+        <v>1.026469188771282</v>
       </c>
       <c r="N24">
-        <v>1.011881785895532</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.005423658733179</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.029520892781003</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.025347927607194</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.004469487715356</v>
+        <v>0.9888721037163432</v>
       </c>
       <c r="D25">
-        <v>1.026922593287141</v>
+        <v>1.01240555883786</v>
       </c>
       <c r="E25">
-        <v>1.024103388816747</v>
+        <v>0.9978229560935681</v>
       </c>
       <c r="F25">
-        <v>1.033330299862194</v>
+        <v>1.01868505018505</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052197084712744</v>
+        <v>1.040922894708392</v>
       </c>
       <c r="J25">
-        <v>1.02884736633851</v>
+        <v>1.013779858392496</v>
       </c>
       <c r="K25">
-        <v>1.039116867236127</v>
+        <v>1.024814299182893</v>
       </c>
       <c r="L25">
-        <v>1.036338708409761</v>
+        <v>1.010455162135218</v>
       </c>
       <c r="M25">
-        <v>1.045432336446509</v>
+        <v>1.031000067587304</v>
       </c>
       <c r="N25">
-        <v>1.013421918523717</v>
+        <v>1.007643956323916</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.033106826064215</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.028664866124487</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_15/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9961116141415709</v>
+        <v>0.9970646117131051</v>
       </c>
       <c r="D2">
-        <v>1.017105441486236</v>
+        <v>1.017652881884413</v>
       </c>
       <c r="E2">
-        <v>1.004313654266193</v>
+        <v>1.005260108420523</v>
       </c>
       <c r="F2">
-        <v>1.023303140712186</v>
+        <v>1.023707764660711</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.042419710811635</v>
+        <v>1.042718087022087</v>
       </c>
       <c r="J2">
-        <v>1.018409251437731</v>
+        <v>1.01933347561986</v>
       </c>
       <c r="K2">
-        <v>1.028331504984198</v>
+        <v>1.028871642430826</v>
       </c>
       <c r="L2">
-        <v>1.015713218389343</v>
+        <v>1.016646644790705</v>
       </c>
       <c r="M2">
-        <v>1.034447098176756</v>
+        <v>1.034846405075843</v>
       </c>
       <c r="N2">
-        <v>1.009306858180688</v>
+        <v>1.011831370008068</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.035834942735856</v>
+        <v>1.036150969366146</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.031102973925351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.031493764901719</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019622029404029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.001228042088573</v>
+        <v>1.001805463592721</v>
       </c>
       <c r="D3">
-        <v>1.02044702606481</v>
+        <v>1.020619558973647</v>
       </c>
       <c r="E3">
-        <v>1.008916765037086</v>
+        <v>1.009490904054364</v>
       </c>
       <c r="F3">
-        <v>1.026584018906201</v>
+        <v>1.026822964205958</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.043464390471479</v>
+        <v>1.043597907590505</v>
       </c>
       <c r="J3">
-        <v>1.021685285329742</v>
+        <v>1.022247030564899</v>
       </c>
       <c r="K3">
-        <v>1.030824800734222</v>
+        <v>1.030995235097663</v>
       </c>
       <c r="L3">
-        <v>1.019436811460222</v>
+        <v>1.020003770362691</v>
       </c>
       <c r="M3">
-        <v>1.036887686437585</v>
+        <v>1.037123768584349</v>
       </c>
       <c r="N3">
-        <v>1.010486573460821</v>
+        <v>1.012660070246445</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.037766514689513</v>
+        <v>1.037953358567485</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.032863298986505</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.032992387192363</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020104105536079</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.004465658051129</v>
+        <v>1.004809535341368</v>
       </c>
       <c r="D4">
-        <v>1.02256496430223</v>
+        <v>1.02250289658537</v>
       </c>
       <c r="E4">
-        <v>1.011835375566547</v>
+        <v>1.012177544816187</v>
       </c>
       <c r="F4">
-        <v>1.028669476130141</v>
+        <v>1.028805467194053</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.044114740926803</v>
+        <v>1.044145108113384</v>
       </c>
       <c r="J4">
-        <v>1.023755817567965</v>
+        <v>1.024091007754178</v>
       </c>
       <c r="K4">
-        <v>1.032398469454055</v>
+        <v>1.032337110639163</v>
       </c>
       <c r="L4">
-        <v>1.021793026200859</v>
+        <v>1.022131186156266</v>
       </c>
       <c r="M4">
-        <v>1.038433773965129</v>
+        <v>1.038568234807923</v>
       </c>
       <c r="N4">
-        <v>1.011231222543851</v>
+        <v>1.013184081426216</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.038990142921503</v>
+        <v>1.039096559878864</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.033976943755035</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.033942207369573</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020406038190548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.005815658238484</v>
+        <v>1.006062847924283</v>
       </c>
       <c r="D5">
-        <v>1.023451334983881</v>
+        <v>1.023291907763368</v>
       </c>
       <c r="E5">
-        <v>1.013054244258616</v>
+        <v>1.013300278147174</v>
       </c>
       <c r="F5">
-        <v>1.029540211255519</v>
+        <v>1.029633592785522</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.044385252233355</v>
+        <v>1.04437275706665</v>
       </c>
       <c r="J5">
-        <v>1.024620445909946</v>
+        <v>1.024861582484713</v>
       </c>
       <c r="K5">
-        <v>1.033057010701287</v>
+        <v>1.032899355359399</v>
       </c>
       <c r="L5">
-        <v>1.022776913515991</v>
+        <v>1.023020144698849</v>
       </c>
       <c r="M5">
-        <v>1.039078719470918</v>
+        <v>1.039171078488192</v>
       </c>
       <c r="N5">
-        <v>1.011542823565279</v>
+        <v>1.013403585096016</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.039500574937525</v>
+        <v>1.039573671005022</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.034449821224631</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.034347700939037</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020532552677871</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006048311486611</v>
+        <v>1.006278600969669</v>
       </c>
       <c r="D6">
-        <v>1.023607160417479</v>
+        <v>1.02343081315802</v>
       </c>
       <c r="E6">
-        <v>1.013265020365853</v>
+        <v>1.013494244231644</v>
       </c>
       <c r="F6">
-        <v>1.029689173538346</v>
+        <v>1.029775101834036</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.044434100673319</v>
+        <v>1.044414082680341</v>
       </c>
       <c r="J6">
-        <v>1.02477174400698</v>
+        <v>1.024996424021696</v>
       </c>
       <c r="K6">
-        <v>1.033174558978546</v>
+        <v>1.03300016255826</v>
       </c>
       <c r="L6">
-        <v>1.022948243369398</v>
+        <v>1.023174868521729</v>
       </c>
       <c r="M6">
-        <v>1.039189791921871</v>
+        <v>1.039274783666033</v>
       </c>
       <c r="N6">
-        <v>1.011598416184815</v>
+        <v>1.01344277492976</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.039588481451992</v>
+        <v>1.039655746801021</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.03454174847316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.034428657132571</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020555998571682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.004502558563559</v>
+        <v>1.004855892643484</v>
       </c>
       <c r="D7">
-        <v>1.022597328245473</v>
+        <v>1.022541627609625</v>
       </c>
       <c r="E7">
-        <v>1.011870418877573</v>
+        <v>1.012221999553317</v>
       </c>
       <c r="F7">
-        <v>1.028689975927608</v>
+        <v>1.028830323934766</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.044128590218624</v>
+        <v>1.044162150045096</v>
       </c>
       <c r="J7">
-        <v>1.023785736707875</v>
+        <v>1.024130149046616</v>
       </c>
       <c r="K7">
-        <v>1.032427551242244</v>
+        <v>1.032372486520105</v>
       </c>
       <c r="L7">
-        <v>1.021824704666532</v>
+        <v>1.022172167552261</v>
       </c>
       <c r="M7">
-        <v>1.038451153561512</v>
+        <v>1.038589922934116</v>
       </c>
       <c r="N7">
-        <v>1.011244966453801</v>
+        <v>1.013224303798663</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.039003897735532</v>
+        <v>1.0391137246099</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.034017776068054</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.03398948357036</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020417217068635</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9978802818138998</v>
+        <v>0.9987416209681315</v>
       </c>
       <c r="D8">
-        <v>1.018270035211852</v>
+        <v>1.018716535408496</v>
       </c>
       <c r="E8">
-        <v>1.005905878654807</v>
+        <v>1.006761657421892</v>
       </c>
       <c r="F8">
-        <v>1.024431183658169</v>
+        <v>1.024796142281653</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.042791165034665</v>
+        <v>1.043046850286534</v>
       </c>
       <c r="J8">
-        <v>1.019550151781262</v>
+        <v>1.020386389203597</v>
       </c>
       <c r="K8">
-        <v>1.029208086030248</v>
+        <v>1.02964880989187</v>
       </c>
       <c r="L8">
-        <v>1.017006440958145</v>
+        <v>1.017850810167396</v>
       </c>
       <c r="M8">
-        <v>1.035290083753629</v>
+        <v>1.035650391144282</v>
       </c>
       <c r="N8">
-        <v>1.009721833867084</v>
+        <v>1.012216020840369</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.036502113340521</v>
+        <v>1.036787274018321</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.031745930019233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.032068678395714</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.019805090133522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9855872004210748</v>
+        <v>0.9873852867252787</v>
       </c>
       <c r="D9">
-        <v>1.010254924641242</v>
+        <v>1.011624913199649</v>
       </c>
       <c r="E9">
-        <v>0.9948796111161816</v>
+        <v>0.9966606622898015</v>
       </c>
       <c r="F9">
-        <v>1.016610266658573</v>
+        <v>1.017389221541582</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.040214649307973</v>
+        <v>1.040877114985997</v>
       </c>
       <c r="J9">
-        <v>1.011659382949969</v>
+        <v>1.013391504532447</v>
       </c>
       <c r="K9">
-        <v>1.02318378540099</v>
+        <v>1.02453215841877</v>
       </c>
       <c r="L9">
-        <v>1.008056312953249</v>
+        <v>1.009808151260923</v>
       </c>
       <c r="M9">
-        <v>1.029439481942912</v>
+        <v>1.030206333015686</v>
       </c>
       <c r="N9">
-        <v>1.0068720099493</v>
+        <v>1.010232315538025</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.031871713230917</v>
+        <v>1.032478631556509</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.027483031719776</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.028447319267835</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018626727185439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9770679486638464</v>
+        <v>0.9795961784557574</v>
       </c>
       <c r="D10">
-        <v>1.004744317100378</v>
+        <v>1.006810662540936</v>
       </c>
       <c r="E10">
-        <v>0.9872862851561559</v>
+        <v>0.9897847277508137</v>
       </c>
       <c r="F10">
-        <v>1.011422192336571</v>
+        <v>1.012524925356697</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.038415202486634</v>
+        <v>1.039385931927277</v>
       </c>
       <c r="J10">
-        <v>1.006221905913208</v>
+        <v>1.008643387021863</v>
       </c>
       <c r="K10">
-        <v>1.019028436548249</v>
+        <v>1.021058027629731</v>
       </c>
       <c r="L10">
-        <v>1.001888947552026</v>
+        <v>1.004340904514149</v>
       </c>
       <c r="M10">
-        <v>1.025588233246815</v>
+        <v>1.026671661760108</v>
       </c>
       <c r="N10">
-        <v>1.004920089068691</v>
+        <v>1.009011888860903</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.02887570917163</v>
+        <v>1.02973312912843</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.024561892223462</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.026009547738968</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.017826387104149</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9742436443632739</v>
+        <v>0.9770531278393946</v>
       </c>
       <c r="D11">
-        <v>1.003058594952748</v>
+        <v>1.005377715517307</v>
       </c>
       <c r="E11">
-        <v>0.9848722942204371</v>
+        <v>0.9876457905524737</v>
       </c>
       <c r="F11">
-        <v>1.011086716222132</v>
+        <v>1.012309437697558</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.038108839260721</v>
+        <v>1.039183025374208</v>
       </c>
       <c r="J11">
-        <v>1.004728609137216</v>
+        <v>1.007412693613255</v>
       </c>
       <c r="K11">
-        <v>1.017923060245673</v>
+        <v>1.020198923625073</v>
       </c>
       <c r="L11">
-        <v>1.000085249165649</v>
+        <v>1.002804511454521</v>
       </c>
       <c r="M11">
-        <v>1.025802538783787</v>
+        <v>1.027002890574721</v>
       </c>
       <c r="N11">
-        <v>1.004514584665675</v>
+        <v>1.008992716830181</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.029486092937134</v>
+        <v>1.03043555742779</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.023813656556028</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.025438626565262</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.01769855027068</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9735184907147036</v>
+        <v>0.9763869227515495</v>
       </c>
       <c r="D12">
-        <v>1.002687637642799</v>
+        <v>1.005057191296817</v>
       </c>
       <c r="E12">
-        <v>0.9842980061021394</v>
+        <v>0.987128622027437</v>
       </c>
       <c r="F12">
-        <v>1.011633692968956</v>
+        <v>1.01287776499962</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.038168618284587</v>
+        <v>1.039255968128066</v>
       </c>
       <c r="J12">
-        <v>1.004487473874117</v>
+        <v>1.00722537626509</v>
       </c>
       <c r="K12">
-        <v>1.017763527266235</v>
+        <v>1.02008814064811</v>
       </c>
       <c r="L12">
-        <v>0.9997323437190088</v>
+        <v>1.002506642898815</v>
       </c>
       <c r="M12">
-        <v>1.026541352993374</v>
+        <v>1.027762337276227</v>
       </c>
       <c r="N12">
-        <v>1.004534113898458</v>
+        <v>1.009116994754039</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.030399738226485</v>
+        <v>1.031365190325715</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.02370085833951</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.025360299184985</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.017723362944885</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9743869840275614</v>
+        <v>0.9771224441010529</v>
       </c>
       <c r="D13">
-        <v>1.003328838610997</v>
+        <v>1.005577477788253</v>
       </c>
       <c r="E13">
-        <v>0.9851246475362805</v>
+        <v>0.9878243675187326</v>
       </c>
       <c r="F13">
-        <v>1.012926416090272</v>
+        <v>1.014106456066427</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.038531346496784</v>
+        <v>1.0395544354585</v>
       </c>
       <c r="J13">
-        <v>1.005219578640767</v>
+        <v>1.007831310642335</v>
       </c>
       <c r="K13">
-        <v>1.018348719423411</v>
+        <v>1.020554918946331</v>
       </c>
       <c r="L13">
-        <v>1.000497481614221</v>
+        <v>1.003143778915852</v>
       </c>
       <c r="M13">
-        <v>1.027766870071907</v>
+        <v>1.028925154667317</v>
       </c>
       <c r="N13">
-        <v>1.004894752626122</v>
+        <v>1.009327857835209</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.031647378937329</v>
+        <v>1.032563020448696</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.024112090139034</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.025687558219957</v>
+      </c>
+      <c r="S13">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T13">
+        <v>1.017871649373565</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9757094277569176</v>
+        <v>0.9782672089949357</v>
       </c>
       <c r="D14">
-        <v>1.004232322600667</v>
+        <v>1.006321029974252</v>
       </c>
       <c r="E14">
-        <v>0.9863308553254375</v>
+        <v>0.9888559953492532</v>
       </c>
       <c r="F14">
-        <v>1.01415364315638</v>
+        <v>1.015251731512196</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.038918855439241</v>
+        <v>1.039863513153696</v>
       </c>
       <c r="J14">
-        <v>1.006165994477664</v>
+        <v>1.008609895510718</v>
       </c>
       <c r="K14">
-        <v>1.019091727182006</v>
+        <v>1.021141531179371</v>
       </c>
       <c r="L14">
-        <v>1.001532553248611</v>
+        <v>1.004008425715778</v>
       </c>
       <c r="M14">
-        <v>1.028830114589238</v>
+        <v>1.029908241840808</v>
       </c>
       <c r="N14">
-        <v>1.005299458694815</v>
+        <v>1.009515240902027</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.032662164141719</v>
+        <v>1.033514324236074</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.024638881371673</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.0261038960005</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018031336539487</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9763909599346585</v>
+        <v>0.9788641757788588</v>
       </c>
       <c r="D15">
-        <v>1.004684705906968</v>
+        <v>1.006697480159709</v>
       </c>
       <c r="E15">
-        <v>0.9869429932022687</v>
+        <v>0.9893850888074593</v>
       </c>
       <c r="F15">
-        <v>1.014649942365142</v>
+        <v>1.015709852619913</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.039087249779625</v>
+        <v>1.039996348079456</v>
       </c>
       <c r="J15">
-        <v>1.006622727599297</v>
+        <v>1.00898686060602</v>
       </c>
       <c r="K15">
-        <v>1.019447373413472</v>
+        <v>1.021422955547278</v>
       </c>
       <c r="L15">
-        <v>1.002042095525957</v>
+        <v>1.004436943760584</v>
       </c>
       <c r="M15">
-        <v>1.029230348110935</v>
+        <v>1.030271146342507</v>
       </c>
       <c r="N15">
-        <v>1.005478216845281</v>
+        <v>1.009587685632486</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.033016229515654</v>
+        <v>1.03383886276806</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.024896296415634</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.026309392168033</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018101347299874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9798321852926518</v>
+        <v>0.9819287090461565</v>
       </c>
       <c r="D16">
-        <v>1.006893035243858</v>
+        <v>1.008565189903394</v>
       </c>
       <c r="E16">
-        <v>0.9899934885332562</v>
+        <v>0.9920657072616693</v>
       </c>
       <c r="F16">
-        <v>1.01664299310268</v>
+        <v>1.017536562551301</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.039792707711653</v>
+        <v>1.040550992954939</v>
       </c>
       <c r="J16">
-        <v>1.008790038933607</v>
+        <v>1.01079897811247</v>
       </c>
       <c r="K16">
-        <v>1.021102623808373</v>
+        <v>1.022745271712457</v>
       </c>
       <c r="L16">
-        <v>1.004508578163773</v>
+        <v>1.006542607036172</v>
       </c>
       <c r="M16">
-        <v>1.030682302352399</v>
+        <v>1.031560477008454</v>
       </c>
       <c r="N16">
-        <v>1.006236539946247</v>
+        <v>1.009870745156907</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.034124940222236</v>
+        <v>1.034819058088442</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.026069851583595</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.027247830385097</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018394914306144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9817845466932347</v>
+        <v>0.9837010616794345</v>
       </c>
       <c r="D17">
-        <v>1.008119118108995</v>
+        <v>1.009625117256903</v>
       </c>
       <c r="E17">
-        <v>0.9917085733540451</v>
+        <v>0.9936040046295085</v>
       </c>
       <c r="F17">
-        <v>1.017528396824094</v>
+        <v>1.018344224257091</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.040130839046147</v>
+        <v>1.040819483142754</v>
       </c>
       <c r="J17">
-        <v>1.009961173826856</v>
+        <v>1.011800321115307</v>
       </c>
       <c r="K17">
-        <v>1.021986271779836</v>
+        <v>1.02346646206764</v>
       </c>
       <c r="L17">
-        <v>1.005863560122305</v>
+        <v>1.007725115965106</v>
       </c>
       <c r="M17">
-        <v>1.03123591475313</v>
+        <v>1.032038080148303</v>
       </c>
       <c r="N17">
-        <v>1.00660770719636</v>
+        <v>1.010023070551247</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.03443283714978</v>
+        <v>1.035066940247011</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.026697256128873</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.027760608452453</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018540069059317</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9826056455651208</v>
+        <v>0.9844767537667735</v>
       </c>
       <c r="D18">
-        <v>1.008580663193396</v>
+        <v>1.010042493721377</v>
       </c>
       <c r="E18">
-        <v>0.9923965121594203</v>
+        <v>0.9942476440378749</v>
       </c>
       <c r="F18">
-        <v>1.01742672559482</v>
+        <v>1.018225469898542</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.040160994391934</v>
+        <v>1.040837224485939</v>
       </c>
       <c r="J18">
-        <v>1.010342288367015</v>
+        <v>1.012139315689696</v>
       </c>
       <c r="K18">
-        <v>1.022252908927215</v>
+        <v>1.023690103302327</v>
       </c>
       <c r="L18">
-        <v>1.006347795238242</v>
+        <v>1.008166414920212</v>
       </c>
       <c r="M18">
-        <v>1.030951281458292</v>
+        <v>1.03173685279437</v>
       </c>
       <c r="N18">
-        <v>1.006661878200667</v>
+        <v>1.010020883673517</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.033968721177563</v>
+        <v>1.034589837577377</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.026873994879041</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.027905819782596</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018555689483391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9824132204931707</v>
+        <v>0.984344922827829</v>
       </c>
       <c r="D19">
-        <v>1.008370672310786</v>
+        <v>1.009886908119754</v>
       </c>
       <c r="E19">
-        <v>0.9921639597858593</v>
+        <v>0.994075211441197</v>
       </c>
       <c r="F19">
-        <v>1.016386700868489</v>
+        <v>1.017216195806616</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.039922412317619</v>
+        <v>1.040631618247899</v>
       </c>
       <c r="J19">
-        <v>1.01001888301637</v>
+        <v>1.011874519291321</v>
       </c>
       <c r="K19">
-        <v>1.021982687714384</v>
+        <v>1.023473495437345</v>
       </c>
       <c r="L19">
-        <v>1.006054060409425</v>
+        <v>1.007931906918236</v>
       </c>
       <c r="M19">
-        <v>1.029865389121416</v>
+        <v>1.0306812417245</v>
       </c>
       <c r="N19">
-        <v>1.006446281729307</v>
+        <v>1.009867196419235</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.032782193841702</v>
+        <v>1.033427465933802</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.026689413524527</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.027759767070464</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018460762411658</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9793392365683434</v>
+        <v>0.9816299125810634</v>
       </c>
       <c r="D20">
-        <v>1.006233245698309</v>
+        <v>1.008081773440251</v>
       </c>
       <c r="E20">
-        <v>0.9893134970413647</v>
+        <v>0.9915785967037946</v>
       </c>
       <c r="F20">
-        <v>1.012801779288472</v>
+        <v>1.013797979446062</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.038917231333445</v>
+        <v>1.039788722211738</v>
       </c>
       <c r="J20">
-        <v>1.007690502952155</v>
+        <v>1.009887809354173</v>
       </c>
       <c r="K20">
-        <v>1.02016736940072</v>
+        <v>1.021983987759449</v>
       </c>
       <c r="L20">
-        <v>1.003546895039884</v>
+        <v>1.00577116051128</v>
       </c>
       <c r="M20">
-        <v>1.02662319894925</v>
+        <v>1.027602470776096</v>
       </c>
       <c r="N20">
-        <v>1.005457445590942</v>
+        <v>1.009267037820026</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.029684112834307</v>
+        <v>1.030459113017381</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.025409866761825</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.026710984922151</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.018043699671357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9727117662091209</v>
+        <v>0.9757799404507841</v>
       </c>
       <c r="D21">
-        <v>1.001928773416392</v>
+        <v>1.004479801745021</v>
       </c>
       <c r="E21">
-        <v>0.9834012128913039</v>
+        <v>0.9864295459294194</v>
       </c>
       <c r="F21">
-        <v>1.008519996480338</v>
+        <v>1.009868842725045</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.037440452929175</v>
+        <v>1.038635972616706</v>
       </c>
       <c r="J21">
-        <v>1.003396424004232</v>
+        <v>1.006326393423659</v>
       </c>
       <c r="K21">
-        <v>1.016873696498906</v>
+        <v>1.019376797050869</v>
       </c>
       <c r="L21">
-        <v>0.9987040289902173</v>
+        <v>1.001672657811125</v>
       </c>
       <c r="M21">
-        <v>1.023341732957778</v>
+        <v>1.024665628297134</v>
       </c>
       <c r="N21">
-        <v>1.00389059529293</v>
+        <v>1.008686861841788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.027045678286569</v>
+        <v>1.028093471931908</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.023084348763612</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.024871193982966</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.017442672681796</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9684701920165848</v>
+        <v>0.9720423512017707</v>
       </c>
       <c r="D22">
-        <v>0.9991804544647529</v>
+        <v>1.002186666106362</v>
       </c>
       <c r="E22">
-        <v>0.9796299186285035</v>
+        <v>0.9831513325308275</v>
       </c>
       <c r="F22">
-        <v>1.00588552282235</v>
+        <v>1.007464114087822</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.036496448513886</v>
+        <v>1.037902592878411</v>
       </c>
       <c r="J22">
-        <v>1.000659463622945</v>
+        <v>1.004060638636124</v>
       </c>
       <c r="K22">
-        <v>1.014768164213746</v>
+        <v>1.017714928819291</v>
       </c>
       <c r="L22">
-        <v>0.995616007248191</v>
+        <v>0.9990641205900181</v>
       </c>
       <c r="M22">
-        <v>1.021341281106507</v>
+        <v>1.022889141564934</v>
       </c>
       <c r="N22">
-        <v>1.002894576111688</v>
+        <v>1.008314630799921</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.025462422648951</v>
+        <v>1.026687475597276</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.02158188495296</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.023681163062337</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017059339111427</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9707101720030176</v>
+        <v>0.9739931992942675</v>
       </c>
       <c r="D23">
-        <v>1.000623412942601</v>
+        <v>1.003371101573861</v>
       </c>
       <c r="E23">
-        <v>0.9816187781148837</v>
+        <v>0.9848573112770708</v>
       </c>
       <c r="F23">
-        <v>1.00727817723726</v>
+        <v>1.008724181522783</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.036989784019138</v>
+        <v>1.038275423792774</v>
       </c>
       <c r="J23">
-        <v>1.002098859372245</v>
+        <v>1.005229681446914</v>
       </c>
       <c r="K23">
-        <v>1.015870004600917</v>
+        <v>1.018564800127449</v>
       </c>
       <c r="L23">
-        <v>0.9972418946063736</v>
+        <v>1.000414912836425</v>
       </c>
       <c r="M23">
-        <v>1.022397314160631</v>
+        <v>1.023815914670726</v>
       </c>
       <c r="N23">
-        <v>1.003414965223171</v>
+        <v>1.008457699119151</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.026298219420998</v>
+        <v>1.027420968397419</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.022351159415354</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.024271342358194</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017251125901147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9793246873749516</v>
+        <v>0.9816226171443558</v>
       </c>
       <c r="D24">
-        <v>1.006199974919511</v>
+        <v>1.008054826184097</v>
       </c>
       <c r="E24">
-        <v>0.9892886833402951</v>
+        <v>0.991561010066053</v>
       </c>
       <c r="F24">
-        <v>1.012660822228913</v>
+        <v>1.013660872897123</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.038876527736189</v>
+        <v>1.03975228732143</v>
       </c>
       <c r="J24">
-        <v>1.007642520646902</v>
+        <v>1.009846914453629</v>
       </c>
       <c r="K24">
-        <v>1.020119079892324</v>
+        <v>1.021941951343315</v>
       </c>
       <c r="L24">
-        <v>1.003506549564492</v>
+        <v>1.00573796250974</v>
       </c>
       <c r="M24">
-        <v>1.026469188771282</v>
+        <v>1.027452261490907</v>
       </c>
       <c r="N24">
-        <v>1.005423658733179</v>
+        <v>1.009239980287365</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.029520892781003</v>
+        <v>1.030298940581133</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.025347927607194</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.026650822908652</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018024760403057</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9888721037163432</v>
+        <v>0.9903974081388128</v>
       </c>
       <c r="D25">
-        <v>1.01240555883786</v>
+        <v>1.013512644196759</v>
       </c>
       <c r="E25">
-        <v>0.9978229560935681</v>
+        <v>0.9993350775774997</v>
       </c>
       <c r="F25">
-        <v>1.01868505018505</v>
+        <v>1.019342970494243</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.040922894708392</v>
+        <v>1.041468311419377</v>
       </c>
       <c r="J25">
-        <v>1.013779858392496</v>
+        <v>1.015252316392624</v>
       </c>
       <c r="K25">
-        <v>1.024814299182893</v>
+        <v>1.025904753702717</v>
       </c>
       <c r="L25">
-        <v>1.010455162135218</v>
+        <v>1.011943724386985</v>
       </c>
       <c r="M25">
-        <v>1.031000067587304</v>
+        <v>1.031648253191477</v>
       </c>
       <c r="N25">
-        <v>1.007643956323916</v>
+        <v>1.010732240604366</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.033106826064215</v>
+        <v>1.033619826656413</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.028664866124487</v>
+        <v>1.029449557201744</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.018947495059399</v>
       </c>
     </row>
   </sheetData>
